--- a/Archivos de trabajo/Yami/ajuste/datos.xlsx
+++ b/Archivos de trabajo/Yami/ajuste/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Paper-ITCRM.SF\Archivos de trabajo\Yami\ajuste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcorvalan\Desktop\Trabajo\Paper-ITCRM.SF\Archivos de trabajo\Yami\ajuste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F414FA8-ABC4-4DFD-89B0-D5F2B830B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22432B4-CC48-48A1-BA5E-D195D14F9419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>X_FOB</t>
   </si>
@@ -51,12 +51,27 @@
   <si>
     <t>X_FOB_FILT</t>
   </si>
+  <si>
+    <t>ITCRM _SANTA FE_met_berretoni _ adj_anual</t>
+  </si>
+  <si>
+    <t>valor_promedio_tonelada_X</t>
+  </si>
+  <si>
+    <t>Global_economic_barometer_(Coincident)</t>
+  </si>
+  <si>
+    <t>Indice_precio_X_MOA_ARG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +97,44 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,19 +142,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 111" xfId="1" xr:uid="{CE8C55FB-B97E-461E-80EC-7928DA4F86EA}"/>
+    <cellStyle name="Normal 42" xfId="2" xr:uid="{609D0134-CBF9-47E6-A4C7-69FFFE00B730}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,7 +459,7 @@
   <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11497,47 +11564,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09B735-E846-4041-883C-F51930DF08A8}">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="J278" sqref="J278:O286"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>36892</v>
       </c>
@@ -11568,8 +11656,17 @@
       <c r="O2" s="2">
         <v>320.46420000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>209.18185247923768</v>
+      </c>
+      <c r="R2">
+        <v>87.587621905491304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36923</v>
       </c>
@@ -11600,8 +11697,17 @@
       <c r="O3" s="2">
         <v>326.84930000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>98.51587840480525</v>
+      </c>
+      <c r="Q3">
+        <v>240.90443990196064</v>
+      </c>
+      <c r="R3">
+        <v>90.724946808338302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>36951</v>
       </c>
@@ -11632,8 +11738,17 @@
       <c r="O4" s="2">
         <v>345.20569999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>95.237628082877848</v>
+      </c>
+      <c r="Q4">
+        <v>226.11554236469419</v>
+      </c>
+      <c r="R4">
+        <v>97.641425038433297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>36982</v>
       </c>
@@ -11664,8 +11779,17 @@
       <c r="O5" s="2">
         <v>360.21319999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>91.341824944600248</v>
+      </c>
+      <c r="Q5">
+        <v>200.58596822023657</v>
+      </c>
+      <c r="R5">
+        <v>105.31749988977199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>37012</v>
       </c>
@@ -11696,8 +11820,17 @@
       <c r="O6" s="2">
         <v>380.30869999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>88.142495824582383</v>
+      </c>
+      <c r="Q6">
+        <v>210.09572904930317</v>
+      </c>
+      <c r="R6">
+        <v>107.473509315103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>37043</v>
       </c>
@@ -11728,8 +11861,17 @@
       <c r="O7" s="2">
         <v>407.43990000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>86.540120956948726</v>
+      </c>
+      <c r="Q7">
+        <v>215.72880962894416</v>
+      </c>
+      <c r="R7">
+        <v>107.35459241036401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37073</v>
       </c>
@@ -11760,8 +11902,17 @@
       <c r="O8" s="2">
         <v>418.75670000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>85.332262224921607</v>
+      </c>
+      <c r="Q8">
+        <v>246.07145267513013</v>
+      </c>
+      <c r="R8">
+        <v>106.141949210273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>37104</v>
       </c>
@@ -11792,8 +11943,17 @@
       <c r="O9" s="2">
         <v>426.17590000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>85.584907172422149</v>
+      </c>
+      <c r="Q9">
+        <v>249.39069598942856</v>
+      </c>
+      <c r="R9">
+        <v>105.170789445957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>37135</v>
       </c>
@@ -11824,8 +11984,17 @@
       <c r="O10" s="2">
         <v>444.517</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>82.191980242266553</v>
+      </c>
+      <c r="Q10">
+        <v>257.91841540593464</v>
+      </c>
+      <c r="R10">
+        <v>102.312934924019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37165</v>
       </c>
@@ -11856,8 +12025,17 @@
       <c r="O11" s="2">
         <v>456.59640000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>81.421110987472105</v>
+      </c>
+      <c r="Q11">
+        <v>249.17354563654771</v>
+      </c>
+      <c r="R11">
+        <v>103.72732458581601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37196</v>
       </c>
@@ -11888,8 +12066,17 @@
       <c r="O12" s="2">
         <v>450.36250000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>86.53470375042896</v>
+      </c>
+      <c r="Q12">
+        <v>252.62700630491281</v>
+      </c>
+      <c r="R12">
+        <v>101.322236576311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37226</v>
       </c>
@@ -11920,8 +12107,17 @@
       <c r="O13" s="2">
         <v>447.17700000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>91.02271712684248</v>
+      </c>
+      <c r="Q13">
+        <v>278.07405246665917</v>
+      </c>
+      <c r="R13">
+        <v>101.594006746594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37257</v>
       </c>
@@ -11958,8 +12154,17 @@
       <c r="O14" s="2">
         <v>456.02789999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>111.51697870944963</v>
+      </c>
+      <c r="Q14">
+        <v>251.56991644126427</v>
+      </c>
+      <c r="R14">
+        <v>98.926550426619897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37288</v>
       </c>
@@ -11996,8 +12201,17 @@
       <c r="O15" s="2">
         <v>458.07209999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>148.9373426673377</v>
+      </c>
+      <c r="Q15">
+        <v>263.12774033677653</v>
+      </c>
+      <c r="R15">
+        <v>97.778112060043696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37316</v>
       </c>
@@ -12034,8 +12248,17 @@
       <c r="O16" s="2">
         <v>456.67169999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>180.19051953623801</v>
+      </c>
+      <c r="Q16">
+        <v>266.00627618304509</v>
+      </c>
+      <c r="R16">
+        <v>96.002081995884396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37347</v>
       </c>
@@ -12072,8 +12295,17 @@
       <c r="O17" s="2">
         <v>478.97919999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>197.7447621022867</v>
+      </c>
+      <c r="Q17">
+        <v>239.11183651559222</v>
+      </c>
+      <c r="R17">
+        <v>91.478614894869295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37377</v>
       </c>
@@ -12110,8 +12342,17 @@
       <c r="O18" s="2">
         <v>513.78710000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>213.29685421809765</v>
+      </c>
+      <c r="Q18">
+        <v>238.39001072852241</v>
+      </c>
+      <c r="R18">
+        <v>91.245763584079796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37408</v>
       </c>
@@ -12148,8 +12389,17 @@
       <c r="O19" s="2">
         <v>532.60119999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>213.40483651687435</v>
+      </c>
+      <c r="Q19">
+        <v>249.99586919272224</v>
+      </c>
+      <c r="R19">
+        <v>91.217742040422806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37438</v>
       </c>
@@ -12186,8 +12436,17 @@
       <c r="O20" s="2">
         <v>533.89390000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>198.21681237323205</v>
+      </c>
+      <c r="Q20">
+        <v>264.80390691990891</v>
+      </c>
+      <c r="R20">
+        <v>93.110079078088305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37469</v>
       </c>
@@ -12224,8 +12483,17 @@
       <c r="O21" s="2">
         <v>520.15170000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>186.93496856800016</v>
+      </c>
+      <c r="Q21">
+        <v>244.99990630934494</v>
+      </c>
+      <c r="R21">
+        <v>96.434521879773101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>37500</v>
       </c>
@@ -12262,8 +12530,17 @@
       <c r="O22" s="2">
         <v>522.00750000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>179.14356011314982</v>
+      </c>
+      <c r="Q22">
+        <v>278.20129916623392</v>
+      </c>
+      <c r="R22">
+        <v>100.551812173489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37530</v>
       </c>
@@ -12300,8 +12577,17 @@
       <c r="O23" s="2">
         <v>549.55579999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>166.81340529672494</v>
+      </c>
+      <c r="Q23">
+        <v>288.39310981760218</v>
+      </c>
+      <c r="R23">
+        <v>103.50849587281201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37561</v>
       </c>
@@ -12338,8 +12624,17 @@
       <c r="O24" s="2">
         <v>569.17240000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>170.74232013607292</v>
+      </c>
+      <c r="Q24">
+        <v>323.0748901224585</v>
+      </c>
+      <c r="R24">
+        <v>109.687631847009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37591</v>
       </c>
@@ -12376,8 +12671,17 @@
       <c r="O25" s="2">
         <v>573.52670000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>169.55370286730513</v>
+      </c>
+      <c r="Q25">
+        <v>302.2571774494134</v>
+      </c>
+      <c r="R25">
+        <v>108.84450061305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -12414,8 +12718,20 @@
       <c r="O26" s="2">
         <v>594.41999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>127.67182390097078</v>
+      </c>
+      <c r="Q26">
+        <v>313.2659538065451</v>
+      </c>
+      <c r="R26">
+        <v>114.186362992432</v>
+      </c>
+      <c r="S26" s="5">
+        <v>105.8591537149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37653</v>
       </c>
@@ -12452,8 +12768,20 @@
       <c r="O27" s="2">
         <v>613.62189999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>122.01546138489468</v>
+      </c>
+      <c r="Q27">
+        <v>345.117709185043</v>
+      </c>
+      <c r="R27">
+        <v>111.02158883850799</v>
+      </c>
+      <c r="S27" s="5">
+        <v>107.36213757749999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37681</v>
       </c>
@@ -12490,8 +12818,20 @@
       <c r="O28" s="2">
         <v>607.58399999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>121.61206157547346</v>
+      </c>
+      <c r="Q28">
+        <v>341.42440445143285</v>
+      </c>
+      <c r="R28">
+        <v>112.13277391245001</v>
+      </c>
+      <c r="S28" s="5">
+        <v>107.77870870759999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37712</v>
       </c>
@@ -12528,8 +12868,20 @@
       <c r="O29" s="2">
         <v>607.8827</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>122.06098276147539</v>
+      </c>
+      <c r="Q29">
+        <v>311.47621365214837</v>
+      </c>
+      <c r="R29">
+        <v>113.486675997208</v>
+      </c>
+      <c r="S29" s="5">
+        <v>109.39948717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37742</v>
       </c>
@@ -12566,8 +12918,20 @@
       <c r="O30" s="2">
         <v>597.48710000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>127.23794261786716</v>
+      </c>
+      <c r="Q30">
+        <v>330.4853396965799</v>
+      </c>
+      <c r="R30">
+        <v>118.089686700708</v>
+      </c>
+      <c r="S30" s="5">
+        <v>111.59527864990001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>37773</v>
       </c>
@@ -12604,8 +12968,20 @@
       <c r="O31" s="2">
         <v>579.33199999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>128.02561452336909</v>
+      </c>
+      <c r="Q31">
+        <v>296.88565428650702</v>
+      </c>
+      <c r="R31">
+        <v>115.801990993031</v>
+      </c>
+      <c r="S31" s="5">
+        <v>104.8052341801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>37803</v>
       </c>
@@ -12642,8 +13018,20 @@
       <c r="O32" s="2">
         <v>579.97550000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>126.31162956093853</v>
+      </c>
+      <c r="Q32">
+        <v>322.74572259508619</v>
+      </c>
+      <c r="R32">
+        <v>117.140118573477</v>
+      </c>
+      <c r="S32" s="5">
+        <v>100.18367755560001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>37834</v>
       </c>
@@ -12680,8 +13068,20 @@
       <c r="O33" s="2">
         <v>576.78750000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>128.28679545303652</v>
+      </c>
+      <c r="Q33">
+        <v>275.76145990939699</v>
+      </c>
+      <c r="R33">
+        <v>113.966934647477</v>
+      </c>
+      <c r="S33" s="5">
+        <v>92.178886444599996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37865</v>
       </c>
@@ -12718,8 +13118,20 @@
       <c r="O34" s="2">
         <v>557.69039999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>131.21954802069718</v>
+      </c>
+      <c r="Q34">
+        <v>281.59845957813479</v>
+      </c>
+      <c r="R34">
+        <v>112.90743217077301</v>
+      </c>
+      <c r="S34" s="5">
+        <v>93.837435999799993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37895</v>
       </c>
@@ -12756,8 +13168,20 @@
       <c r="O35" s="2">
         <v>549.91390000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>131.21253791967032</v>
+      </c>
+      <c r="Q35">
+        <v>305.83467550536176</v>
+      </c>
+      <c r="R35">
+        <v>111.702312279078</v>
+      </c>
+      <c r="S35" s="5">
+        <v>93.108672835800007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37926</v>
       </c>
@@ -12794,8 +13218,20 @@
       <c r="O36" s="2">
         <v>565.12400000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>131.22141951411191</v>
+      </c>
+      <c r="Q36">
+        <v>313.30160401988957</v>
+      </c>
+      <c r="R36">
+        <v>107.219260570673</v>
+      </c>
+      <c r="S36" s="5">
+        <v>91.394773506299998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37956</v>
       </c>
@@ -12832,8 +13268,20 @@
       <c r="O37" s="2">
         <v>574.25289999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>137.4638973236145</v>
+      </c>
+      <c r="Q37">
+        <v>269.22911300092744</v>
+      </c>
+      <c r="R37">
+        <v>103.77588908188299</v>
+      </c>
+      <c r="S37" s="6">
+        <v>88.496553657799993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37987</v>
       </c>
@@ -12870,8 +13318,20 @@
       <c r="O38" s="2">
         <v>571.49260000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>138.39809462175404</v>
+      </c>
+      <c r="Q38">
+        <v>266.3890199143616</v>
+      </c>
+      <c r="R38">
+        <v>102.97550835008199</v>
+      </c>
+      <c r="S38" s="5">
+        <v>90.787912601599999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38018</v>
       </c>
@@ -12908,8 +13368,20 @@
       <c r="O39" s="2">
         <v>587.48230000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>138.61136026148708</v>
+      </c>
+      <c r="Q39">
+        <v>266.27110940227811</v>
+      </c>
+      <c r="R39">
+        <v>107.672480595297</v>
+      </c>
+      <c r="S39" s="5">
+        <v>90.200527412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38047</v>
       </c>
@@ -12946,8 +13418,20 @@
       <c r="O40" s="2">
         <v>629.2894</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>136.25909925238102</v>
+      </c>
+      <c r="Q40">
+        <v>281.98603603343656</v>
+      </c>
+      <c r="R40">
+        <v>106.68956510122899</v>
+      </c>
+      <c r="S40" s="5">
+        <v>92.311559986500001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38078</v>
       </c>
@@ -12984,8 +13468,20 @@
       <c r="O41" s="2">
         <v>646.25250000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>131.87277950149814</v>
+      </c>
+      <c r="Q41">
+        <v>271.45412350400807</v>
+      </c>
+      <c r="R41">
+        <v>106.987430631678</v>
+      </c>
+      <c r="S41" s="5">
+        <v>95.328351143700004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38108</v>
       </c>
@@ -13022,8 +13518,20 @@
       <c r="O42" s="2">
         <v>638.05719999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>130.28269902491468</v>
+      </c>
+      <c r="Q42">
+        <v>263.37206487198694</v>
+      </c>
+      <c r="R42">
+        <v>100.88951406410899</v>
+      </c>
+      <c r="S42" s="5">
+        <v>95.540261852</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>38139</v>
       </c>
@@ -13060,8 +13568,20 @@
       <c r="O43" s="2">
         <v>646.67309999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>131.40901917580322</v>
+      </c>
+      <c r="Q43">
+        <v>285.71952364575242</v>
+      </c>
+      <c r="R43">
+        <v>101.505889083649</v>
+      </c>
+      <c r="S43" s="5">
+        <v>96.831387004299998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>38169</v>
       </c>
@@ -13098,8 +13618,20 @@
       <c r="O44" s="2">
         <v>671.85659999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>135.25820983204432</v>
+      </c>
+      <c r="Q44">
+        <v>284.12988613082763</v>
+      </c>
+      <c r="R44">
+        <v>102.113646044173</v>
+      </c>
+      <c r="S44" s="5">
+        <v>97.409067419199999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38200</v>
       </c>
@@ -13136,8 +13668,20 @@
       <c r="O45" s="2">
         <v>693.45129999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>137.62471628325633</v>
+      </c>
+      <c r="Q45">
+        <v>300.89739893491839</v>
+      </c>
+      <c r="R45">
+        <v>103.939556839579</v>
+      </c>
+      <c r="S45" s="5">
+        <v>96.6983182516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>38231</v>
       </c>
@@ -13174,8 +13718,20 @@
       <c r="O46" s="2">
         <v>678.61199999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>139.68645350879444</v>
+      </c>
+      <c r="Q46">
+        <v>294.17100911017587</v>
+      </c>
+      <c r="R46">
+        <v>105.504735398444</v>
+      </c>
+      <c r="S46" s="5">
+        <v>96.292614329300008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38261</v>
       </c>
@@ -13212,8 +13768,20 @@
       <c r="O47" s="2">
         <v>641.721</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>140.25752136314131</v>
+      </c>
+      <c r="Q47">
+        <v>299.5657587953221</v>
+      </c>
+      <c r="R47">
+        <v>106.55064301343199</v>
+      </c>
+      <c r="S47" s="5">
+        <v>95.295626061600004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38292</v>
       </c>
@@ -13250,8 +13818,20 @@
       <c r="O48" s="2">
         <v>634.38919999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>143.96358711648026</v>
+      </c>
+      <c r="Q48">
+        <v>310.00257885198272</v>
+      </c>
+      <c r="R48">
+        <v>107.16434390511699</v>
+      </c>
+      <c r="S48" s="5">
+        <v>95.994561657700004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>38322</v>
       </c>
@@ -13288,8 +13868,20 @@
       <c r="O49" s="2">
         <v>670.93349999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>148.07546855473001</v>
+      </c>
+      <c r="Q49">
+        <v>319.45411142702591</v>
+      </c>
+      <c r="R49">
+        <v>110.24956553551699</v>
+      </c>
+      <c r="S49" s="6">
+        <v>93.40981228070001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38353</v>
       </c>
@@ -13326,8 +13918,20 @@
       <c r="O50" s="2">
         <v>700.11260000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>143.17237190791019</v>
+      </c>
+      <c r="Q50">
+        <v>275.60848213544267</v>
+      </c>
+      <c r="R50">
+        <v>111.32582820852301</v>
+      </c>
+      <c r="S50" s="5">
+        <v>95.110383362600004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>38384</v>
       </c>
@@ -13364,8 +13968,20 @@
       <c r="O51" s="2">
         <v>697.89189999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>144.35905173952995</v>
+      </c>
+      <c r="Q51">
+        <v>293.79041613675349</v>
+      </c>
+      <c r="R51">
+        <v>111.38260199561201</v>
+      </c>
+      <c r="S51" s="5">
+        <v>97.09937406920001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38412</v>
       </c>
@@ -13402,8 +14018,20 @@
       <c r="O52" s="2">
         <v>699.22209999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>140.07570805639642</v>
+      </c>
+      <c r="Q52">
+        <v>308.58010789239125</v>
+      </c>
+      <c r="R52">
+        <v>110.21153284946701</v>
+      </c>
+      <c r="S52" s="5">
+        <v>96.09024256810001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>38443</v>
       </c>
@@ -13440,8 +14068,20 @@
       <c r="O53" s="2">
         <v>703.79589999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>142.96915800863482</v>
+      </c>
+      <c r="Q53">
+        <v>266.24294954084996</v>
+      </c>
+      <c r="R53">
+        <v>110.01145204811399</v>
+      </c>
+      <c r="S53" s="5">
+        <v>93.178502803400008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38473</v>
       </c>
@@ -13478,8 +14118,20 @@
       <c r="O54" s="2">
         <v>696.53830000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>146.44177504749331</v>
+      </c>
+      <c r="Q54">
+        <v>278.61719653790232</v>
+      </c>
+      <c r="R54">
+        <v>111.697340623523</v>
+      </c>
+      <c r="S54" s="5">
+        <v>94.863326217799994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38504</v>
       </c>
@@ -13516,8 +14168,20 @@
       <c r="O55" s="2">
         <v>683.63599999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>145.06365361425503</v>
+      </c>
+      <c r="Q55">
+        <v>285.59928105449876</v>
+      </c>
+      <c r="R55">
+        <v>110.962049897444</v>
+      </c>
+      <c r="S55" s="5">
+        <v>97.858170978800004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>38534</v>
       </c>
@@ -13554,8 +14218,20 @@
       <c r="O56" s="2">
         <v>686.0933</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>144.49439832823268</v>
+      </c>
+      <c r="Q56">
+        <v>296.52675887843986</v>
+      </c>
+      <c r="R56">
+        <v>110.029243536838</v>
+      </c>
+      <c r="S56" s="5">
+        <v>99.772824844699997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38565</v>
       </c>
@@ -13592,8 +14268,20 @@
       <c r="O57" s="2">
         <v>714.62530000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>146.39183542543577</v>
+      </c>
+      <c r="Q57">
+        <v>303.98277024168897</v>
+      </c>
+      <c r="R57">
+        <v>107.02547421917301</v>
+      </c>
+      <c r="S57" s="5">
+        <v>100.1762537777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>38596</v>
       </c>
@@ -13630,8 +14318,20 @@
       <c r="O58" s="2">
         <v>758.8501</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>149.48851917810597</v>
+      </c>
+      <c r="Q58">
+        <v>327.60942827042834</v>
+      </c>
+      <c r="R58">
+        <v>108.060067451384</v>
+      </c>
+      <c r="S58" s="5">
+        <v>103.3509213776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>38626</v>
       </c>
@@ -13668,8 +14368,20 @@
       <c r="O59" s="2">
         <v>801.35569999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>153.33693772055867</v>
+      </c>
+      <c r="Q59">
+        <v>321.19402695832468</v>
+      </c>
+      <c r="R59">
+        <v>108.37624222490901</v>
+      </c>
+      <c r="S59" s="5">
+        <v>102.8233361564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>38657</v>
       </c>
@@ -13706,8 +14418,20 @@
       <c r="O60" s="2">
         <v>847.27290000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>153.57386546294603</v>
+      </c>
+      <c r="Q60">
+        <v>324.08491870700664</v>
+      </c>
+      <c r="R60">
+        <v>111.393424764442</v>
+      </c>
+      <c r="S60" s="5">
+        <v>104.7213888384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>38687</v>
       </c>
@@ -13744,8 +14468,20 @@
       <c r="O61" s="2">
         <v>866.82420000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>151.37063058046508</v>
+      </c>
+      <c r="Q61">
+        <v>332.33239346959164</v>
+      </c>
+      <c r="R61">
+        <v>112.279120003375</v>
+      </c>
+      <c r="S61" s="6">
+        <v>106.5552750052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>38718</v>
       </c>
@@ -13782,8 +14518,20 @@
       <c r="O62" s="2">
         <v>865.45929999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>178.3360990545095</v>
+      </c>
+      <c r="Q62">
+        <v>304.72527589611667</v>
+      </c>
+      <c r="R62">
+        <v>112.24206822643799</v>
+      </c>
+      <c r="S62" s="5">
+        <v>107.32907288930001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>38749</v>
       </c>
@@ -13820,8 +14568,20 @@
       <c r="O63" s="2">
         <v>904.40060000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>186.21007220161479</v>
+      </c>
+      <c r="Q63">
+        <v>359.98089778319934</v>
+      </c>
+      <c r="R63">
+        <v>111.147440184619</v>
+      </c>
+      <c r="S63" s="5">
+        <v>110.3725570631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>38777</v>
       </c>
@@ -13858,8 +14618,20 @@
       <c r="O64" s="2">
         <v>921.3374</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>186.05125197530481</v>
+      </c>
+      <c r="Q64">
+        <v>369.44325742503395</v>
+      </c>
+      <c r="R64">
+        <v>111.074124116215</v>
+      </c>
+      <c r="S64" s="5">
+        <v>112.5983700476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>38808</v>
       </c>
@@ -13896,8 +14668,20 @@
       <c r="O65" s="2">
         <v>904.89869999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>186.39985326762945</v>
+      </c>
+      <c r="Q65">
+        <v>301.61361050676533</v>
+      </c>
+      <c r="R65">
+        <v>110.062712113508</v>
+      </c>
+      <c r="S65" s="5">
+        <v>109.8236404199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>38838</v>
       </c>
@@ -13934,8 +14718,20 @@
       <c r="O66" s="2">
         <v>918.78129999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>183.32547794604724</v>
+      </c>
+      <c r="Q66">
+        <v>318.28827186046277</v>
+      </c>
+      <c r="R66">
+        <v>108.656070533923</v>
+      </c>
+      <c r="S66" s="5">
+        <v>112.2066201282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>38869</v>
       </c>
@@ -13972,8 +14768,20 @@
       <c r="O67" s="2">
         <v>949.57659999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>178.90846128039021</v>
+      </c>
+      <c r="Q67">
+        <v>362.02194213800976</v>
+      </c>
+      <c r="R67">
+        <v>107.178218423318</v>
+      </c>
+      <c r="S67" s="5">
+        <v>114.26973945180001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>38899</v>
       </c>
@@ -14010,8 +14818,20 @@
       <c r="O68" s="2">
         <v>983.03549999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>181.71663429227675</v>
+      </c>
+      <c r="Q68">
+        <v>355.65268748765169</v>
+      </c>
+      <c r="R68">
+        <v>108.158767964925</v>
+      </c>
+      <c r="S68" s="5">
+        <v>117.9052497489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>38930</v>
       </c>
@@ -14048,8 +14868,20 @@
       <c r="O69" s="2">
         <v>1034.4897000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>183.38784335136017</v>
+      </c>
+      <c r="Q69">
+        <v>380.71583456341091</v>
+      </c>
+      <c r="R69">
+        <v>108.74054879502199</v>
+      </c>
+      <c r="S69" s="5">
+        <v>122.5589665417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>38961</v>
       </c>
@@ -14086,8 +14918,20 @@
       <c r="O70" s="2">
         <v>1143.4401</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>182.21083607031318</v>
+      </c>
+      <c r="Q70">
+        <v>396.86179612262907</v>
+      </c>
+      <c r="R70">
+        <v>107.06466084264</v>
+      </c>
+      <c r="S70" s="5">
+        <v>127.0357837095</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38991</v>
       </c>
@@ -14124,8 +14968,20 @@
       <c r="O71" s="2">
         <v>1265.2637999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>181.97798813420286</v>
+      </c>
+      <c r="Q71">
+        <v>402.53798563332685</v>
+      </c>
+      <c r="R71">
+        <v>107.709268923651</v>
+      </c>
+      <c r="S71" s="5">
+        <v>130.43937166150002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39022</v>
       </c>
@@ -14162,8 +15018,20 @@
       <c r="O72" s="2">
         <v>1340.9438</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>180.05936748385406</v>
+      </c>
+      <c r="Q72">
+        <v>429.38756703274561</v>
+      </c>
+      <c r="R72">
+        <v>106.552755575343</v>
+      </c>
+      <c r="S72" s="5">
+        <v>138.25054432190001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>39052</v>
       </c>
@@ -14200,8 +15068,20 @@
       <c r="O73" s="2">
         <v>1404.5949000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>179.59615482967644</v>
+      </c>
+      <c r="Q73">
+        <v>470.19585099471476</v>
+      </c>
+      <c r="R73">
+        <v>105.982758788586</v>
+      </c>
+      <c r="S73" s="6">
+        <v>140.51008401659999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>39083</v>
       </c>
@@ -14238,8 +15118,20 @@
       <c r="O74" s="2">
         <v>1420.1165000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>205.92107768477095</v>
+      </c>
+      <c r="Q74">
+        <v>469.27606888225017</v>
+      </c>
+      <c r="R74">
+        <v>103.992075057451</v>
+      </c>
+      <c r="S74" s="5">
+        <v>148.3723145404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>39114</v>
       </c>
@@ -14276,8 +15168,20 @@
       <c r="O75" s="2">
         <v>1366.8909000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>210.81689788786787</v>
+      </c>
+      <c r="Q75">
+        <v>470.03615420185326</v>
+      </c>
+      <c r="R75">
+        <v>101.773056387938</v>
+      </c>
+      <c r="S75" s="5">
+        <v>155.90924800100001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>39142</v>
       </c>
@@ -14314,8 +15218,20 @@
       <c r="O76" s="2">
         <v>1284.8869</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>210.95486987980311</v>
+      </c>
+      <c r="Q76">
+        <v>533.37611201591642</v>
+      </c>
+      <c r="R76">
+        <v>98.712384053408698</v>
+      </c>
+      <c r="S76" s="5">
+        <v>163.71843745860002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>39173</v>
       </c>
@@ -14352,8 +15268,20 @@
       <c r="O77" s="2">
         <v>1242.3284000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>214.69653814722972</v>
+      </c>
+      <c r="Q77">
+        <v>501.49152704284182</v>
+      </c>
+      <c r="R77">
+        <v>98.621891924269093</v>
+      </c>
+      <c r="S77" s="5">
+        <v>168.71252543450001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>39203</v>
       </c>
@@ -14390,8 +15318,20 @@
       <c r="O78" s="2">
         <v>1283.6079</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>218.1722762884136</v>
+      </c>
+      <c r="Q78">
+        <v>505.28735223272713</v>
+      </c>
+      <c r="R78">
+        <v>95.708257846486305</v>
+      </c>
+      <c r="S78" s="5">
+        <v>170.06011568529999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>39234</v>
       </c>
@@ -14428,8 +15368,20 @@
       <c r="O79" s="2">
         <v>1318.021</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>222.08826491552713</v>
+      </c>
+      <c r="Q79">
+        <v>530.97746595601791</v>
+      </c>
+      <c r="R79">
+        <v>90.525469525920997</v>
+      </c>
+      <c r="S79" s="5">
+        <v>176.02735888020001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>39264</v>
       </c>
@@ -14466,8 +15418,20 @@
       <c r="O80" s="2">
         <v>1360.8966</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>229.37046877807447</v>
+      </c>
+      <c r="Q80">
+        <v>501.22047995538838</v>
+      </c>
+      <c r="R80">
+        <v>89.131977778652697</v>
+      </c>
+      <c r="S80" s="5">
+        <v>177.45177475940002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>39295</v>
       </c>
@@ -14504,8 +15468,20 @@
       <c r="O81" s="2">
         <v>1402.99</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>223.55469166555048</v>
+      </c>
+      <c r="Q81">
+        <v>546.06567412844788</v>
+      </c>
+      <c r="R81">
+        <v>86.668617027867995</v>
+      </c>
+      <c r="S81" s="5">
+        <v>175.45047087600003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>39326</v>
       </c>
@@ -14542,8 +15518,20 @@
       <c r="O82" s="2">
         <v>1349.6432</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>228.86269315022244</v>
+      </c>
+      <c r="Q82">
+        <v>566.63754177988267</v>
+      </c>
+      <c r="R82">
+        <v>83.890224028642507</v>
+      </c>
+      <c r="S82" s="5">
+        <v>176.2977543646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>39356</v>
       </c>
@@ -14580,8 +15568,20 @@
       <c r="O83" s="2">
         <v>1258.9987000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>240.09524303672583</v>
+      </c>
+      <c r="Q83">
+        <v>521.06817379616268</v>
+      </c>
+      <c r="R83">
+        <v>81.701511029578299</v>
+      </c>
+      <c r="S83" s="5">
+        <v>169.03848578399999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>39387</v>
       </c>
@@ -14618,8 +15618,20 @@
       <c r="O84" s="2">
         <v>1141.3106</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>241.69114590289209</v>
+      </c>
+      <c r="Q84">
+        <v>500.31235170910145</v>
+      </c>
+      <c r="R84">
+        <v>67.988304558514997</v>
+      </c>
+      <c r="S84" s="5">
+        <v>157.17000821250002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>39417</v>
       </c>
@@ -14656,8 +15668,20 @@
       <c r="O85" s="2">
         <v>1042.2585999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>238.80915671362146</v>
+      </c>
+      <c r="Q85">
+        <v>441.56062085414089</v>
+      </c>
+      <c r="R85">
+        <v>54.180705381937699</v>
+      </c>
+      <c r="S85" s="6">
+        <v>140.89150600360003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>39448</v>
       </c>
@@ -14694,8 +15718,20 @@
       <c r="O86" s="2">
         <v>1053.1383000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>230.60758568406752</v>
+      </c>
+      <c r="Q86">
+        <v>426.93021418162294</v>
+      </c>
+      <c r="R86">
+        <v>49.867140191719002</v>
+      </c>
+      <c r="S86" s="5">
+        <v>136.2373196124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39479</v>
       </c>
@@ -14732,8 +15768,20 @@
       <c r="O87" s="2">
         <v>1083.8318999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>236.60245027972871</v>
+      </c>
+      <c r="Q87">
+        <v>464.52086028638831</v>
+      </c>
+      <c r="R87">
+        <v>53.349229547350397</v>
+      </c>
+      <c r="S87" s="5">
+        <v>145.24376501430001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>39508</v>
       </c>
@@ -14770,8 +15818,20 @@
       <c r="O88" s="2">
         <v>1110.0746999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>239.18476975130631</v>
+      </c>
+      <c r="Q88">
+        <v>456.22639418153165</v>
+      </c>
+      <c r="R88">
+        <v>53.781623656921703</v>
+      </c>
+      <c r="S88" s="5">
+        <v>141.51891537329999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>39539</v>
       </c>
@@ -14808,8 +15868,20 @@
       <c r="O89" s="2">
         <v>1136.309</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>241.95037935314576</v>
+      </c>
+      <c r="Q89">
+        <v>421.44884955564248</v>
+      </c>
+      <c r="R89">
+        <v>58.103062054627102</v>
+      </c>
+      <c r="S89" s="5">
+        <v>146.9730495721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>39569</v>
       </c>
@@ -14846,8 +15918,20 @@
       <c r="O90" s="2">
         <v>1133.2645</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>243.96088088783921</v>
+      </c>
+      <c r="Q90">
+        <v>481.98860088400488</v>
+      </c>
+      <c r="R90">
+        <v>66.637749483135806</v>
+      </c>
+      <c r="S90" s="5">
+        <v>154.30791745670001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>39600</v>
       </c>
@@ -14884,8 +15968,20 @@
       <c r="O91" s="2">
         <v>1138.6708000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>240.51645037092902</v>
+      </c>
+      <c r="Q91">
+        <v>504.90160659054209</v>
+      </c>
+      <c r="R91">
+        <v>74.350595924297593</v>
+      </c>
+      <c r="S91" s="5">
+        <v>164.61903297120003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>39630</v>
       </c>
@@ -14922,8 +16018,20 @@
       <c r="O92" s="2">
         <v>1076.5003999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>242.61935873519067</v>
+      </c>
+      <c r="Q92">
+        <v>533.28989026035367</v>
+      </c>
+      <c r="R92">
+        <v>81.073826585274702</v>
+      </c>
+      <c r="S92" s="5">
+        <v>161.07531824669999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>39661</v>
       </c>
@@ -14960,8 +16068,20 @@
       <c r="O93" s="2">
         <v>973.77380000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>238.44388229491119</v>
+      </c>
+      <c r="Q93">
+        <v>535.860119675291</v>
+      </c>
+      <c r="R93">
+        <v>86.189078767448294</v>
+      </c>
+      <c r="S93" s="5">
+        <v>156.73667324569999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>39692</v>
       </c>
@@ -14998,8 +16118,20 @@
       <c r="O94" s="2">
         <v>953.2509</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>220.87990803700427</v>
+      </c>
+      <c r="Q94">
+        <v>574.26196859677327</v>
+      </c>
+      <c r="R94">
+        <v>94.909721310150402</v>
+      </c>
+      <c r="S94" s="5">
+        <v>155.28800850760001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>39722</v>
       </c>
@@ -15036,8 +16168,20 @@
       <c r="O95" s="2">
         <v>1009.1152</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>196.26707530544181</v>
+      </c>
+      <c r="Q95">
+        <v>551.64354305886513</v>
+      </c>
+      <c r="R95">
+        <v>97.135927430912005</v>
+      </c>
+      <c r="S95" s="5">
+        <v>156.82891620909999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>39753</v>
       </c>
@@ -15074,8 +16218,20 @@
       <c r="O96" s="2">
         <v>1105.6613</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>192.68668603184554</v>
+      </c>
+      <c r="Q96">
+        <v>580.24743980628466</v>
+      </c>
+      <c r="R96">
+        <v>102.960345892109</v>
+      </c>
+      <c r="S96" s="5">
+        <v>155.94755376839998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>39783</v>
       </c>
@@ -15112,8 +16268,20 @@
       <c r="O97" s="2">
         <v>1158.2337</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>191.46776881340196</v>
+      </c>
+      <c r="Q97">
+        <v>563.51818903918956</v>
+      </c>
+      <c r="R97">
+        <v>109.102652992941</v>
+      </c>
+      <c r="S97" s="6">
+        <v>157.62353002259999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>39814</v>
       </c>
@@ -15150,8 +16318,20 @@
       <c r="O98" s="2">
         <v>1139.5231000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>164.15192446032938</v>
+      </c>
+      <c r="Q98">
+        <v>516.8370416602354</v>
+      </c>
+      <c r="R98">
+        <v>115.653397473648</v>
+      </c>
+      <c r="S98" s="5">
+        <v>159.90899335360001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>39845</v>
       </c>
@@ -15188,8 +16368,20 @@
       <c r="O99" s="2">
         <v>1144.4918</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>164.89888516143552</v>
+      </c>
+      <c r="Q99">
+        <v>584.03630299687995</v>
+      </c>
+      <c r="R99">
+        <v>114.27998385476999</v>
+      </c>
+      <c r="S99" s="5">
+        <v>158.67616929590002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>39873</v>
       </c>
@@ -15226,8 +16418,20 @@
       <c r="O100" s="2">
         <v>1223.2724000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>170.94985772378439</v>
+      </c>
+      <c r="Q100">
+        <v>475.83074778317734</v>
+      </c>
+      <c r="R100">
+        <v>114.828960445321</v>
+      </c>
+      <c r="S100" s="5">
+        <v>146.8416595118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>39904</v>
       </c>
@@ -15264,8 +16468,20 @@
       <c r="O101" s="2">
         <v>1296.6224999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>180.24291870125626</v>
+      </c>
+      <c r="Q101">
+        <v>419.30124065152631</v>
+      </c>
+      <c r="R101">
+        <v>116.875308629119</v>
+      </c>
+      <c r="S101" s="5">
+        <v>148.31610278700001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>39934</v>
       </c>
@@ -15302,8 +16518,20 @@
       <c r="O102" s="2">
         <v>1303.2112999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>192.01730835635743</v>
+      </c>
+      <c r="Q102">
+        <v>411.71090355869597</v>
+      </c>
+      <c r="R102">
+        <v>116.452848228173</v>
+      </c>
+      <c r="S102" s="5">
+        <v>150.9044341197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>39965</v>
       </c>
@@ -15340,8 +16568,20 @@
       <c r="O103" s="2">
         <v>1294.8811000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>203.63087757941591</v>
+      </c>
+      <c r="Q103">
+        <v>420.64015186055951</v>
+      </c>
+      <c r="R103">
+        <v>117.033630455123</v>
+      </c>
+      <c r="S103" s="5">
+        <v>153.9337487965</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>39995</v>
       </c>
@@ -15378,8 +16618,20 @@
       <c r="O104" s="2">
         <v>1291.57</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>206.65402389527409</v>
+      </c>
+      <c r="Q104">
+        <v>430.34078600891905</v>
+      </c>
+      <c r="R104">
+        <v>113.71581645418</v>
+      </c>
+      <c r="S104" s="5">
+        <v>154.86869390950002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>40026</v>
       </c>
@@ -15416,8 +16668,20 @@
       <c r="O105" s="2">
         <v>1313.8598</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>215.28809513446117</v>
+      </c>
+      <c r="Q105">
+        <v>475.5558123420567</v>
+      </c>
+      <c r="R105">
+        <v>110.85773098622001</v>
+      </c>
+      <c r="S105" s="5">
+        <v>161.3879352436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>40057</v>
       </c>
@@ -15454,8 +16718,20 @@
       <c r="O106" s="2">
         <v>1379.2733000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>217.08300135669435</v>
+      </c>
+      <c r="Q106">
+        <v>512.97698339920908</v>
+      </c>
+      <c r="R106">
+        <v>106.84853260176401</v>
+      </c>
+      <c r="S106" s="5">
+        <v>164.46167778450001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>40087</v>
       </c>
@@ -15492,8 +16768,20 @@
       <c r="O107" s="2">
         <v>1429.6018999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>223.5490755472307</v>
+      </c>
+      <c r="Q107">
+        <v>534.81174329537998</v>
+      </c>
+      <c r="R107">
+        <v>107.460218461883</v>
+      </c>
+      <c r="S107" s="5">
+        <v>169.78208212269999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>40118</v>
       </c>
@@ -15530,8 +16818,20 @@
       <c r="O108" s="2">
         <v>1443.4126000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>223.25568457425285</v>
+      </c>
+      <c r="Q108">
+        <v>589.39405717386126</v>
+      </c>
+      <c r="R108">
+        <v>107.536226652247</v>
+      </c>
+      <c r="S108" s="5">
+        <v>173.44371526859999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>40148</v>
       </c>
@@ -15568,8 +16868,20 @@
       <c r="O109" s="2">
         <v>1479.7981</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>218.46735931290632</v>
+      </c>
+      <c r="Q109">
+        <v>617.38107302416915</v>
+      </c>
+      <c r="R109">
+        <v>110.194557342466</v>
+      </c>
+      <c r="S109" s="6">
+        <v>177.14651306770003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>40179</v>
       </c>
@@ -15606,8 +16918,20 @@
       <c r="O110" s="2">
         <v>1565.0299</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>227.57022752849636</v>
+      </c>
+      <c r="Q110">
+        <v>645.73912156198583</v>
+      </c>
+      <c r="R110">
+        <v>109.696727678052</v>
+      </c>
+      <c r="S110" s="5">
+        <v>184.1622778768</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>40210</v>
       </c>
@@ -15644,8 +16968,20 @@
       <c r="O111" s="2">
         <v>1636.2991</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>220.23343246345033</v>
+      </c>
+      <c r="Q111">
+        <v>597.80634569361291</v>
+      </c>
+      <c r="R111">
+        <v>108.766770545851</v>
+      </c>
+      <c r="S111" s="5">
+        <v>190.2434047765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>40238</v>
       </c>
@@ -15682,8 +17018,20 @@
       <c r="O112" s="2">
         <v>1635.2581</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>223.84553903475447</v>
+      </c>
+      <c r="Q112">
+        <v>603.33955657335332</v>
+      </c>
+      <c r="R112">
+        <v>110.532437121675</v>
+      </c>
+      <c r="S112" s="5">
+        <v>192.73499054200002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>40269</v>
       </c>
@@ -15720,8 +17068,20 @@
       <c r="O113" s="2">
         <v>1596.7049</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>226.61344965611963</v>
+      </c>
+      <c r="Q113">
+        <v>564.32475388251555</v>
+      </c>
+      <c r="R113">
+        <v>105.67507758260599</v>
+      </c>
+      <c r="S113" s="5">
+        <v>194.84385348160001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>40299</v>
       </c>
@@ -15758,8 +17118,20 @@
       <c r="O114" s="2">
         <v>1589.7045000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>220.55235544500641</v>
+      </c>
+      <c r="Q114">
+        <v>596.90421858226784</v>
+      </c>
+      <c r="R114">
+        <v>101.575768838595</v>
+      </c>
+      <c r="S114" s="5">
+        <v>198.48335758790003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>40330</v>
       </c>
@@ -15796,8 +17168,20 @@
       <c r="O115" s="2">
         <v>1576.4222</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>218.85985825769555</v>
+      </c>
+      <c r="Q115">
+        <v>642.18497899218676</v>
+      </c>
+      <c r="R115">
+        <v>98.642569616282103</v>
+      </c>
+      <c r="S115" s="5">
+        <v>199.40871773700002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>40360</v>
       </c>
@@ -15834,8 +17218,20 @@
       <c r="O116" s="2">
         <v>1558.4712</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>222.84293183079299</v>
+      </c>
+      <c r="Q116">
+        <v>631.60269925103046</v>
+      </c>
+      <c r="R116">
+        <v>97.471173829623197</v>
+      </c>
+      <c r="S116" s="5">
+        <v>195.02712381890001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>40391</v>
       </c>
@@ -15872,8 +17268,20 @@
       <c r="O117" s="2">
         <v>1592.7067999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>221.88265357778988</v>
+      </c>
+      <c r="Q117">
+        <v>607.03556654096144</v>
+      </c>
+      <c r="R117">
+        <v>98.287744314366293</v>
+      </c>
+      <c r="S117" s="5">
+        <v>196.27164228550001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>40422</v>
       </c>
@@ -15910,8 +17318,20 @@
       <c r="O118" s="2">
         <v>1641.8677</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>227.7922589849216</v>
+      </c>
+      <c r="Q118">
+        <v>619.62452282810693</v>
+      </c>
+      <c r="R118">
+        <v>96.404985425944602</v>
+      </c>
+      <c r="S118" s="5">
+        <v>195.57091334769999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>40452</v>
       </c>
@@ -15948,8 +17368,20 @@
       <c r="O119" s="2">
         <v>1613.8737000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>234.58207666665027</v>
+      </c>
+      <c r="Q119">
+        <v>623.67201319353057</v>
+      </c>
+      <c r="R119">
+        <v>93.709478217246499</v>
+      </c>
+      <c r="S119" s="5">
+        <v>191.64350938300001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>40483</v>
       </c>
@@ -15986,8 +17418,20 @@
       <c r="O120" s="2">
         <v>1536.1813</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>230.76567490417622</v>
+      </c>
+      <c r="Q120">
+        <v>618.77034439766373</v>
+      </c>
+      <c r="R120">
+        <v>94.4986034201725</v>
+      </c>
+      <c r="S120" s="5">
+        <v>187.31196764980001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>40513</v>
       </c>
@@ -16024,8 +17468,20 @@
       <c r="O121" s="2">
         <v>1511.05</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>231.209504492733</v>
+      </c>
+      <c r="Q121">
+        <v>595.55690402295829</v>
+      </c>
+      <c r="R121">
+        <v>93.091687837608902</v>
+      </c>
+      <c r="S121" s="6">
+        <v>183.1936807635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>40544</v>
       </c>
@@ -16062,8 +17518,20 @@
       <c r="O122" s="2">
         <v>1509.4676999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>251.58713776239762</v>
+      </c>
+      <c r="Q122">
+        <v>624.58594277044369</v>
+      </c>
+      <c r="R122">
+        <v>92.993732200596796</v>
+      </c>
+      <c r="S122" s="5">
+        <v>183.51354154019998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>40575</v>
       </c>
@@ -16100,8 +17568,20 @@
       <c r="O123" s="2">
         <v>1530.2827</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>255.57080961720783</v>
+      </c>
+      <c r="Q123">
+        <v>559.71124045518934</v>
+      </c>
+      <c r="R123">
+        <v>93.312215424253495</v>
+      </c>
+      <c r="S123" s="5">
+        <v>184.01497100359998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>40603</v>
       </c>
@@ -16138,8 +17618,20 @@
       <c r="O124" s="2">
         <v>1533.6239</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>258.37082228698154</v>
+      </c>
+      <c r="Q124">
+        <v>620.01224730268973</v>
+      </c>
+      <c r="R124">
+        <v>96.198989065115995</v>
+      </c>
+      <c r="S124" s="5">
+        <v>191.5633454956</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>40634</v>
       </c>
@@ -16176,8 +17668,20 @@
       <c r="O125" s="2">
         <v>1466.2879</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>270.15860418866129</v>
+      </c>
+      <c r="Q125">
+        <v>589.7903084690912</v>
+      </c>
+      <c r="R125">
+        <v>97.117990589947098</v>
+      </c>
+      <c r="S125" s="5">
+        <v>194.38558852049999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>40664</v>
       </c>
@@ -16214,8 +17718,20 @@
       <c r="O126" s="2">
         <v>1425.626</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>267.45748449329267</v>
+      </c>
+      <c r="Q126">
+        <v>552.31641361399068</v>
+      </c>
+      <c r="R126">
+        <v>95.271768711493394</v>
+      </c>
+      <c r="S126" s="5">
+        <v>205.42999606010002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>40695</v>
       </c>
@@ -16252,8 +17768,20 @@
       <c r="O127" s="2">
         <v>1453.3127999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>270.2974539117331</v>
+      </c>
+      <c r="Q127">
+        <v>600.59500327542753</v>
+      </c>
+      <c r="R127">
+        <v>92.958934547928806</v>
+      </c>
+      <c r="S127" s="5">
+        <v>205.83051621090002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>40725</v>
       </c>
@@ -16290,8 +17818,20 @@
       <c r="O128" s="2">
         <v>1503.3362</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>273.74040417391188</v>
+      </c>
+      <c r="Q128">
+        <v>573.91738959768622</v>
+      </c>
+      <c r="R128">
+        <v>91.095107601044603</v>
+      </c>
+      <c r="S128" s="5">
+        <v>210.02931455999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>40756</v>
       </c>
@@ -16328,8 +17868,20 @@
       <c r="O129" s="2">
         <v>1511.9749999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>270.6375594518488</v>
+      </c>
+      <c r="Q129">
+        <v>664.71025862999863</v>
+      </c>
+      <c r="R129">
+        <v>88.740696250969293</v>
+      </c>
+      <c r="S129" s="5">
+        <v>218.0839889353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>40787</v>
       </c>
@@ -16366,8 +17918,20 @@
       <c r="O130" s="2">
         <v>1461.8110999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>251.71404831990839</v>
+      </c>
+      <c r="Q130">
+        <v>721.04647824011283</v>
+      </c>
+      <c r="R130">
+        <v>89.442044966175203</v>
+      </c>
+      <c r="S130" s="5">
+        <v>223.6663873661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>40817</v>
       </c>
@@ -16404,8 +17968,20 @@
       <c r="O131" s="2">
         <v>1437.2759000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>247.21941665899715</v>
+      </c>
+      <c r="Q131">
+        <v>714.87169735227042</v>
+      </c>
+      <c r="R131">
+        <v>88.804537150487505</v>
+      </c>
+      <c r="S131" s="5">
+        <v>219.28854489829999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>40848</v>
       </c>
@@ -16442,8 +18018,20 @@
       <c r="O132" s="2">
         <v>1452.174</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>249.48235744549683</v>
+      </c>
+      <c r="Q132">
+        <v>703.49407966956221</v>
+      </c>
+      <c r="R132">
+        <v>87.202362936209596</v>
+      </c>
+      <c r="S132" s="5">
+        <v>220.70869332540002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>40878</v>
       </c>
@@ -16480,8 +18068,20 @@
       <c r="O133" s="2">
         <v>1453.4942000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>242.6653814201542</v>
+      </c>
+      <c r="Q133">
+        <v>743.53140153898482</v>
+      </c>
+      <c r="R133">
+        <v>87.489865343018394</v>
+      </c>
+      <c r="S133" s="6">
+        <v>219.56599512439999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>40909</v>
       </c>
@@ -16518,8 +18118,20 @@
       <c r="O134" s="2">
         <v>1436.7316000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>243.6690556763792</v>
+      </c>
+      <c r="Q134">
+        <v>708.56194319554299</v>
+      </c>
+      <c r="R134">
+        <v>89.909218402904997</v>
+      </c>
+      <c r="S134" s="5">
+        <v>222.61516874580002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>40940</v>
       </c>
@@ -16556,8 +18168,20 @@
       <c r="O135" s="2">
         <v>1389.6337000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>254.99981766643725</v>
+      </c>
+      <c r="Q135">
+        <v>695.84525489606779</v>
+      </c>
+      <c r="R135">
+        <v>92.623090989428604</v>
+      </c>
+      <c r="S135" s="5">
+        <v>215.50448442379999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>40969</v>
       </c>
@@ -16594,8 +18218,20 @@
       <c r="O136" s="2">
         <v>1393.6171999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>244.25862969210127</v>
+      </c>
+      <c r="Q136">
+        <v>612.22223724965704</v>
+      </c>
+      <c r="R136">
+        <v>93.193052709608295</v>
+      </c>
+      <c r="S136" s="5">
+        <v>210.5282167087</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41000</v>
       </c>
@@ -16632,8 +18268,20 @@
       <c r="O137" s="2">
         <v>1467.6312</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>239.30590411397</v>
+      </c>
+      <c r="Q137">
+        <v>563.10423279626661</v>
+      </c>
+      <c r="R137">
+        <v>94.339449562849694</v>
+      </c>
+      <c r="S137" s="5">
+        <v>206.20829181680003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41030</v>
       </c>
@@ -16670,8 +18318,20 @@
       <c r="O138" s="2">
         <v>1471.8343</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>227.18593392187475</v>
+      </c>
+      <c r="Q138">
+        <v>576.02932182276516</v>
+      </c>
+      <c r="R138">
+        <v>92.952683952081998</v>
+      </c>
+      <c r="S138" s="5">
+        <v>204.99431284490001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41061</v>
       </c>
@@ -16708,8 +18368,20 @@
       <c r="O139" s="2">
         <v>1429.4069</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>221.45671431680984</v>
+      </c>
+      <c r="Q139">
+        <v>583.9941252294949</v>
+      </c>
+      <c r="R139">
+        <v>97.491408586650707</v>
+      </c>
+      <c r="S139" s="5">
+        <v>208.5407821343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41091</v>
       </c>
@@ -16746,8 +18418,20 @@
       <c r="O140" s="2">
         <v>1464.3489</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>224.4394129236675</v>
+      </c>
+      <c r="Q140">
+        <v>568.99310404418759</v>
+      </c>
+      <c r="R140">
+        <v>99.5211750636402</v>
+      </c>
+      <c r="S140" s="5">
+        <v>214.48946742900003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41122</v>
       </c>
@@ -16784,8 +18468,20 @@
       <c r="O141" s="2">
         <v>1507.6697999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>225.59049701598312</v>
+      </c>
+      <c r="Q141">
+        <v>598.62098548459778</v>
+      </c>
+      <c r="R141">
+        <v>101.241582485313</v>
+      </c>
+      <c r="S141" s="5">
+        <v>204.99027494410001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41153</v>
       </c>
@@ -16822,8 +18518,20 @@
       <c r="O142" s="2">
         <v>1426.9260999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>228.96699331233395</v>
+      </c>
+      <c r="Q142">
+        <v>653.34741708593344</v>
+      </c>
+      <c r="R142">
+        <v>104.16514082796201</v>
+      </c>
+      <c r="S142" s="5">
+        <v>203.28998520460001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41183</v>
       </c>
@@ -16860,8 +18568,20 @@
       <c r="O143" s="2">
         <v>1294.7343000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>231.3430211022231</v>
+      </c>
+      <c r="Q143">
+        <v>758.46763892541708</v>
+      </c>
+      <c r="R143">
+        <v>105.702475582728</v>
+      </c>
+      <c r="S143" s="5">
+        <v>206.8886729006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41214</v>
       </c>
@@ -16898,8 +18618,20 @@
       <c r="O144" s="2">
         <v>1255.5481</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>231.01158800164708</v>
+      </c>
+      <c r="Q144">
+        <v>792.77405327175381</v>
+      </c>
+      <c r="R144">
+        <v>107.08595412528599</v>
+      </c>
+      <c r="S144" s="5">
+        <v>206.996515375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41244</v>
       </c>
@@ -16936,8 +18668,20 @@
       <c r="O145" s="2">
         <v>1245.3624</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>231.97083659358054</v>
+      </c>
+      <c r="Q145">
+        <v>747.70348290364632</v>
+      </c>
+      <c r="R145">
+        <v>107.00794051861401</v>
+      </c>
+      <c r="S145" s="6">
+        <v>212.96670111220001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41275</v>
       </c>
@@ -16974,8 +18718,20 @@
       <c r="O146" s="2">
         <v>1188.7746999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>228.10182850414014</v>
+      </c>
+      <c r="Q146">
+        <v>716.58856286009348</v>
+      </c>
+      <c r="R146">
+        <v>105.566914243862</v>
+      </c>
+      <c r="S146" s="5">
+        <v>215.53118415079999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41306</v>
       </c>
@@ -17012,8 +18768,20 @@
       <c r="O147" s="2">
         <v>1204.8489</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>236.58260007825427</v>
+      </c>
+      <c r="Q147">
+        <v>721.43034594055871</v>
+      </c>
+      <c r="R147">
+        <v>106.896230654305</v>
+      </c>
+      <c r="S147" s="5">
+        <v>214.9137425532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41334</v>
       </c>
@@ -17050,8 +18818,20 @@
       <c r="O148" s="2">
         <v>1301.1232</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>237.86236845007673</v>
+      </c>
+      <c r="Q148">
+        <v>772.0339781119477</v>
+      </c>
+      <c r="R148">
+        <v>104.63104034237701</v>
+      </c>
+      <c r="S148" s="5">
+        <v>212.0823477486</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41365</v>
       </c>
@@ -17088,8 +18868,20 @@
       <c r="O149" s="2">
         <v>1393.2784999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149">
+        <v>238.93398444834003</v>
+      </c>
+      <c r="Q149">
+        <v>600.99736983393552</v>
+      </c>
+      <c r="R149">
+        <v>103.767079738733</v>
+      </c>
+      <c r="S149" s="5">
+        <v>218.13788684579998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41395</v>
       </c>
@@ -17126,8 +18918,20 @@
       <c r="O150" s="2">
         <v>1477.5983000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150">
+        <v>238.86352676033877</v>
+      </c>
+      <c r="Q150">
+        <v>636.6825455468171</v>
+      </c>
+      <c r="R150">
+        <v>105.23843669697899</v>
+      </c>
+      <c r="S150" s="5">
+        <v>218.23372969550002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41426</v>
       </c>
@@ -17164,8 +18968,20 @@
       <c r="O151" s="2">
         <v>1490.1215</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151">
+        <v>228.74964125139553</v>
+      </c>
+      <c r="Q151">
+        <v>607.35581976128628</v>
+      </c>
+      <c r="R151">
+        <v>104.221449425472</v>
+      </c>
+      <c r="S151" s="5">
+        <v>219.48515888750001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41456</v>
       </c>
@@ -17202,8 +19018,20 @@
       <c r="O152" s="2">
         <v>1412.2644</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152">
+        <v>224.03745660253159</v>
+      </c>
+      <c r="Q152">
+        <v>574.58640023664452</v>
+      </c>
+      <c r="R152">
+        <v>104.129240446506</v>
+      </c>
+      <c r="S152" s="5">
+        <v>207.28467942579999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41487</v>
       </c>
@@ -17240,8 +19068,20 @@
       <c r="O153" s="2">
         <v>1312.6164000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153">
+        <v>221.19021410190837</v>
+      </c>
+      <c r="Q153">
+        <v>573.98747153082809</v>
+      </c>
+      <c r="R153">
+        <v>104.073969175603</v>
+      </c>
+      <c r="S153" s="5">
+        <v>203.58217233600001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41518</v>
       </c>
@@ -17278,8 +19118,20 @@
       <c r="O154" s="2">
         <v>1244.5878</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154">
+        <v>231.92792746869998</v>
+      </c>
+      <c r="Q154">
+        <v>594.32250596403139</v>
+      </c>
+      <c r="R154">
+        <v>103.651613202604</v>
+      </c>
+      <c r="S154" s="5">
+        <v>202.03963542720001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41548</v>
       </c>
@@ -17316,8 +19168,20 @@
       <c r="O155" s="2">
         <v>1246.6498999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155">
+        <v>243.05846916854591</v>
+      </c>
+      <c r="Q155">
+        <v>577.62152400723403</v>
+      </c>
+      <c r="R155">
+        <v>104.107590668954</v>
+      </c>
+      <c r="S155" s="5">
+        <v>191.23977835060001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41579</v>
       </c>
@@ -17354,8 +19218,20 @@
       <c r="O156" s="2">
         <v>1234.7229</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156">
+        <v>239.91253988350354</v>
+      </c>
+      <c r="Q156">
+        <v>554.73643097075114</v>
+      </c>
+      <c r="R156">
+        <v>103.33582235296799</v>
+      </c>
+      <c r="S156" s="5">
+        <v>192.02287576010002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41609</v>
       </c>
@@ -17392,8 +19268,20 @@
       <c r="O157" s="2">
         <v>1158.7885000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157">
+        <v>245.78260613462598</v>
+      </c>
+      <c r="Q157">
+        <v>601.69849106905019</v>
+      </c>
+      <c r="R157">
+        <v>103.15964970375801</v>
+      </c>
+      <c r="S157" s="6">
+        <v>191.0719582815</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41640</v>
       </c>
@@ -17430,8 +19318,20 @@
       <c r="O158" s="2">
         <v>1122.7543000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158">
+        <v>215.34925754853887</v>
+      </c>
+      <c r="Q158">
+        <v>518.43238907394027</v>
+      </c>
+      <c r="R158">
+        <v>100.33325075127</v>
+      </c>
+      <c r="S158" s="5">
+        <v>189.95575527940002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41671</v>
       </c>
@@ -17468,8 +19368,20 @@
       <c r="O159" s="2">
         <v>1125.7872</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159">
+        <v>230.45585785336118</v>
+      </c>
+      <c r="Q159">
+        <v>493.65252588465984</v>
+      </c>
+      <c r="R159">
+        <v>98.994475540322398</v>
+      </c>
+      <c r="S159" s="5">
+        <v>183.5737898154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41699</v>
       </c>
@@ -17506,8 +19418,20 @@
       <c r="O160" s="2">
         <v>1118.9372000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160">
+        <v>234.09744510894546</v>
+      </c>
+      <c r="Q160">
+        <v>501.22702328394655</v>
+      </c>
+      <c r="R160">
+        <v>99.2752345549967</v>
+      </c>
+      <c r="S160" s="5">
+        <v>174.71449453650001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41730</v>
       </c>
@@ -17544,8 +19468,20 @@
       <c r="O161" s="2">
         <v>1142.7679000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161">
+        <v>241.15631988466228</v>
+      </c>
+      <c r="Q161">
+        <v>430.60470217424967</v>
+      </c>
+      <c r="R161">
+        <v>98.742549349985794</v>
+      </c>
+      <c r="S161" s="5">
+        <v>165.92192499380002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41760</v>
       </c>
@@ -17582,8 +19518,20 @@
       <c r="O162" s="2">
         <v>1177.6619000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162">
+        <v>241.02467750516334</v>
+      </c>
+      <c r="Q162">
+        <v>434.39848857354576</v>
+      </c>
+      <c r="R162">
+        <v>100.56790819747</v>
+      </c>
+      <c r="S162" s="5">
+        <v>166.48742522149999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41791</v>
       </c>
@@ -17620,8 +19568,20 @@
       <c r="O163" s="2">
         <v>1215.7084</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <v>239.66950822093474</v>
+      </c>
+      <c r="Q163">
+        <v>423.75581792737717</v>
+      </c>
+      <c r="R163">
+        <v>100.20318958424799</v>
+      </c>
+      <c r="S163" s="5">
+        <v>166.0289250797</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41821</v>
       </c>
@@ -17658,8 +19618,20 @@
       <c r="O164" s="2">
         <v>1203.7311</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <v>238.73747232131208</v>
+      </c>
+      <c r="Q164">
+        <v>427.64898990792983</v>
+      </c>
+      <c r="R164">
+        <v>99.908165068049598</v>
+      </c>
+      <c r="S164" s="5">
+        <v>162.9472347304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41852</v>
       </c>
@@ -17696,8 +19668,20 @@
       <c r="O165" s="2">
         <v>1162.2070000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165">
+        <v>235.63795993824473</v>
+      </c>
+      <c r="Q165">
+        <v>435.82133159756222</v>
+      </c>
+      <c r="R165">
+        <v>100.166596377213</v>
+      </c>
+      <c r="S165" s="5">
+        <v>166.2498191681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41883</v>
       </c>
@@ -17734,8 +19718,20 @@
       <c r="O166" s="2">
         <v>1184.6180999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166">
+        <v>230.44035782139437</v>
+      </c>
+      <c r="Q166">
+        <v>428.28074217794858</v>
+      </c>
+      <c r="R166">
+        <v>99.158649723835197</v>
+      </c>
+      <c r="S166" s="5">
+        <v>160.50374166169999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41913</v>
       </c>
@@ -17772,8 +19768,20 @@
       <c r="O167" s="2">
         <v>1162.1560999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167">
+        <v>219.84804815857441</v>
+      </c>
+      <c r="Q167">
+        <v>423.19260009021502</v>
+      </c>
+      <c r="R167">
+        <v>97.548258730512302</v>
+      </c>
+      <c r="S167" s="5">
+        <v>158.90873439310002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41944</v>
       </c>
@@ -17810,8 +19818,20 @@
       <c r="O168" s="2">
         <v>1122.1086</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168">
+        <v>212.47216804436425</v>
+      </c>
+      <c r="Q168">
+        <v>461.01478956655137</v>
+      </c>
+      <c r="R168">
+        <v>97.847308270771194</v>
+      </c>
+      <c r="S168" s="5">
+        <v>154.54138281829998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41974</v>
       </c>
@@ -17848,8 +19868,20 @@
       <c r="O169" s="2">
         <v>1162.2161000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169">
+        <v>206.60983162652738</v>
+      </c>
+      <c r="Q169">
+        <v>430.28302702570539</v>
+      </c>
+      <c r="R169">
+        <v>97.820844465479695</v>
+      </c>
+      <c r="S169" s="6">
+        <v>156.06885346269999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42005</v>
       </c>
@@ -17886,8 +19918,20 @@
       <c r="O170" s="2">
         <v>1207.587</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170">
+        <v>167.17168092800424</v>
+      </c>
+      <c r="Q170">
+        <v>376.28546469936572</v>
+      </c>
+      <c r="R170">
+        <v>98.561457931310002</v>
+      </c>
+      <c r="S170" s="5">
+        <v>148.32341052229998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42036</v>
       </c>
@@ -17924,8 +19968,20 @@
       <c r="O171" s="2">
         <v>1185.3707999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171">
+        <v>160.4941346619859</v>
+      </c>
+      <c r="Q171">
+        <v>372.85682910728372</v>
+      </c>
+      <c r="R171">
+        <v>95.792390592492495</v>
+      </c>
+      <c r="S171" s="5">
+        <v>147.08616680990002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42064</v>
       </c>
@@ -17962,8 +20018,20 @@
       <c r="O172" s="2">
         <v>1108.2049999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172">
+        <v>148.75004085114028</v>
+      </c>
+      <c r="Q172">
+        <v>390.53424371054251</v>
+      </c>
+      <c r="R172">
+        <v>93.887666865539003</v>
+      </c>
+      <c r="S172" s="5">
+        <v>147.34980610830002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42095</v>
       </c>
@@ -18000,8 +20068,20 @@
       <c r="O173" s="2">
         <v>1055.3875</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173">
+        <v>151.25239610352182</v>
+      </c>
+      <c r="Q173">
+        <v>395.83240986988318</v>
+      </c>
+      <c r="R173">
+        <v>96.717274562595804</v>
+      </c>
+      <c r="S173" s="5">
+        <v>148.03482266029999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42125</v>
       </c>
@@ -18038,8 +20118,20 @@
       <c r="O174" s="2">
         <v>1061.9935</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174">
+        <v>153.17149975390447</v>
+      </c>
+      <c r="Q174">
+        <v>399.41096875074209</v>
+      </c>
+      <c r="R174">
+        <v>96.473958343218598</v>
+      </c>
+      <c r="S174" s="5">
+        <v>155.14551559080002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42156</v>
       </c>
@@ -18076,8 +20168,20 @@
       <c r="O175" s="2">
         <v>1054.2065</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175">
+        <v>152.68767214412077</v>
+      </c>
+      <c r="Q175">
+        <v>438.26407113892157</v>
+      </c>
+      <c r="R175">
+        <v>96.282504342061898</v>
+      </c>
+      <c r="S175" s="5">
+        <v>165.99845874660002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42186</v>
       </c>
@@ -18114,8 +20218,20 @@
       <c r="O176" s="2">
         <v>1066.075</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176">
+        <v>148.34617103000858</v>
+      </c>
+      <c r="Q176">
+        <v>459.09774313229809</v>
+      </c>
+      <c r="R176">
+        <v>98.183055042542193</v>
+      </c>
+      <c r="S176" s="5">
+        <v>166.74003842230002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42217</v>
       </c>
@@ -18152,8 +20268,20 @@
       <c r="O177" s="2">
         <v>1123.181</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177">
+        <v>139.63448058827282</v>
+      </c>
+      <c r="Q177">
+        <v>442.46756224930039</v>
+      </c>
+      <c r="R177">
+        <v>97.3570520834962</v>
+      </c>
+      <c r="S177" s="5">
+        <v>168.73920396599999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42248</v>
       </c>
@@ -18190,8 +20318,20 @@
       <c r="O178" s="2">
         <v>1157.8206</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178">
+        <v>130.28001117162401</v>
+      </c>
+      <c r="Q178">
+        <v>494.4648787314045</v>
+      </c>
+      <c r="R178">
+        <v>98.498034290344506</v>
+      </c>
+      <c r="S178" s="5">
+        <v>171.26013882979998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42278</v>
       </c>
@@ -18228,8 +20368,20 @@
       <c r="O179" s="2">
         <v>1229.4866999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179">
+        <v>131.54343931639653</v>
+      </c>
+      <c r="Q179">
+        <v>455.98812239393442</v>
+      </c>
+      <c r="R179">
+        <v>100.07670148888801</v>
+      </c>
+      <c r="S179" s="5">
+        <v>164.64249366380002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42309</v>
       </c>
@@ -18266,8 +20418,20 @@
       <c r="O180" s="2">
         <v>1300.548</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180">
+        <v>132.89666109733923</v>
+      </c>
+      <c r="Q180">
+        <v>476.6632191434885</v>
+      </c>
+      <c r="R180">
+        <v>101.318339659079</v>
+      </c>
+      <c r="S180" s="5">
+        <v>165.34383190770001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42339</v>
       </c>
@@ -18304,8 +20468,20 @@
       <c r="O181" s="2">
         <v>1297.6201000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181">
+        <v>151.94053355700296</v>
+      </c>
+      <c r="Q181">
+        <v>481.71860085207391</v>
+      </c>
+      <c r="R181">
+        <v>103.447650424778</v>
+      </c>
+      <c r="S181" s="6">
+        <v>164.2170155606</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42370</v>
       </c>
@@ -18342,8 +20518,20 @@
       <c r="O182" s="2">
         <v>1232.8439000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182">
+        <v>189.16788963456844</v>
+      </c>
+      <c r="Q182">
+        <v>402.99386643997684</v>
+      </c>
+      <c r="R182">
+        <v>106.293772688625</v>
+      </c>
+      <c r="S182" s="5">
+        <v>162.89306208830001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42401</v>
       </c>
@@ -18380,8 +20568,20 @@
       <c r="O183" s="2">
         <v>1181.4414999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183">
+        <v>200.97116112623959</v>
+      </c>
+      <c r="Q183">
+        <v>425.12941521161036</v>
+      </c>
+      <c r="R183">
+        <v>108.61431473784801</v>
+      </c>
+      <c r="S183" s="5">
+        <v>165.2624429807</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42430</v>
       </c>
@@ -18418,8 +20618,20 @@
       <c r="O184" s="2">
         <v>1195.4322</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184">
+        <v>207.46392284646288</v>
+      </c>
+      <c r="Q184">
+        <v>436.55954004617627</v>
+      </c>
+      <c r="R184">
+        <v>110.834758276914</v>
+      </c>
+      <c r="S184" s="5">
+        <v>161.4055941853</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42461</v>
       </c>
@@ -18456,8 +20668,20 @@
       <c r="O185" s="2">
         <v>1178.5141000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185">
+        <v>194.75528379311632</v>
+      </c>
+      <c r="Q185">
+        <v>410.52964726652885</v>
+      </c>
+      <c r="R185">
+        <v>110.81570679744701</v>
+      </c>
+      <c r="S185" s="5">
+        <v>155.1958814747</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42491</v>
       </c>
@@ -18494,8 +20718,20 @@
       <c r="O186" s="2">
         <v>1112.0594000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186">
+        <v>186.01953316216816</v>
+      </c>
+      <c r="Q186">
+        <v>426.27467019533623</v>
+      </c>
+      <c r="R186">
+        <v>111.47378243912</v>
+      </c>
+      <c r="S186" s="5">
+        <v>156.0452342216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42522</v>
       </c>
@@ -18532,8 +20768,20 @@
       <c r="O187" s="2">
         <v>1083.1866</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187">
+        <v>185.0869134571854</v>
+      </c>
+      <c r="Q187">
+        <v>412.02580503505948</v>
+      </c>
+      <c r="R187">
+        <v>112.561087603893</v>
+      </c>
+      <c r="S187" s="5">
+        <v>157.56047033729999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42552</v>
       </c>
@@ -18570,8 +20818,20 @@
       <c r="O188" s="2">
         <v>1102.6926000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188">
+        <v>197.80379090562499</v>
+      </c>
+      <c r="Q188">
+        <v>402.61078918904445</v>
+      </c>
+      <c r="R188">
+        <v>113.67999132747499</v>
+      </c>
+      <c r="S188" s="5">
+        <v>154.7279522215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42583</v>
       </c>
@@ -18608,8 +20868,20 @@
       <c r="O189" s="2">
         <v>1114.8734999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189">
+        <v>201.04548222711728</v>
+      </c>
+      <c r="Q189">
+        <v>412.15397741501914</v>
+      </c>
+      <c r="R189">
+        <v>114.690379230491</v>
+      </c>
+      <c r="S189" s="5">
+        <v>157.276275943</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42614</v>
       </c>
@@ -18646,8 +20918,20 @@
       <c r="O190" s="2">
         <v>1114.4921999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190">
+        <v>200.33895630780444</v>
+      </c>
+      <c r="Q190">
+        <v>440.52602413299326</v>
+      </c>
+      <c r="R190">
+        <v>114.51950823833</v>
+      </c>
+      <c r="S190" s="5">
+        <v>157.51500000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42644</v>
       </c>
@@ -18684,8 +20968,20 @@
       <c r="O191" s="2">
         <v>1111.8051</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191">
+        <v>199.84867260443932</v>
+      </c>
+      <c r="Q191">
+        <v>437.87793020861488</v>
+      </c>
+      <c r="R191">
+        <v>116.611717375179</v>
+      </c>
+      <c r="S191" s="5">
+        <v>158.72768794999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42675</v>
       </c>
@@ -18722,8 +21018,20 @@
       <c r="O192" s="2">
         <v>1093.8810000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P192">
+        <v>190.95583630272529</v>
+      </c>
+      <c r="Q192">
+        <v>434.58500745360783</v>
+      </c>
+      <c r="R192">
+        <v>116.252713472965</v>
+      </c>
+      <c r="S192" s="5">
+        <v>162.3183120832</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42705</v>
       </c>
@@ -18760,8 +21068,20 @@
       <c r="O193" s="2">
         <v>1094.2577000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193">
+        <v>191.52494121869316</v>
+      </c>
+      <c r="Q193">
+        <v>458.77816739128258</v>
+      </c>
+      <c r="R193">
+        <v>117.04863435175599</v>
+      </c>
+      <c r="S193" s="6">
+        <v>164.94805343159999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42736</v>
       </c>
@@ -18798,8 +21118,20 @@
       <c r="O194" s="2">
         <v>1139.492</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P194">
+        <v>232.07637092003156</v>
+      </c>
+      <c r="Q194">
+        <v>414.0517624857157</v>
+      </c>
+      <c r="R194">
+        <v>116.540737345765</v>
+      </c>
+      <c r="S194" s="5">
+        <v>168.13021620859999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42767</v>
       </c>
@@ -18836,8 +21168,20 @@
       <c r="O195" s="2">
         <v>1189.3267000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P195">
+        <v>228.33567271256078</v>
+      </c>
+      <c r="Q195">
+        <v>456.84689483302998</v>
+      </c>
+      <c r="R195">
+        <v>116.244226335116</v>
+      </c>
+      <c r="S195" s="5">
+        <v>173.15529978040001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42795</v>
       </c>
@@ -18874,8 +21218,20 @@
       <c r="O196" s="2">
         <v>1195.9293</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P196">
+        <v>221.25446837502113</v>
+      </c>
+      <c r="Q196">
+        <v>483.10289088256673</v>
+      </c>
+      <c r="R196">
+        <v>115.71201785030399</v>
+      </c>
+      <c r="S196" s="5">
+        <v>178.3545919499</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42826</v>
       </c>
@@ -18912,8 +21268,20 @@
       <c r="O197" s="2">
         <v>1139.0728999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P197">
+        <v>213.48348595813306</v>
+      </c>
+      <c r="Q197">
+        <v>504.52753333982156</v>
+      </c>
+      <c r="R197">
+        <v>114.19658169610101</v>
+      </c>
+      <c r="S197" s="5">
+        <v>177.2728532118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42856</v>
       </c>
@@ -18950,8 +21318,20 @@
       <c r="O198" s="2">
         <v>1089.7268999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198">
+        <v>213.35560161935763</v>
+      </c>
+      <c r="Q198">
+        <v>493.44460594084308</v>
+      </c>
+      <c r="R198">
+        <v>112.940848335602</v>
+      </c>
+      <c r="S198" s="5">
+        <v>185.3179602141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42887</v>
       </c>
@@ -18988,8 +21368,20 @@
       <c r="O199" s="2">
         <v>1112.3929000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P199">
+        <v>211.45125736922625</v>
+      </c>
+      <c r="Q199">
+        <v>540.88426368959915</v>
+      </c>
+      <c r="R199">
+        <v>112.814651224603</v>
+      </c>
+      <c r="S199" s="5">
+        <v>180.96238415650001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42917</v>
       </c>
@@ -19026,8 +21418,20 @@
       <c r="O200" s="2">
         <v>1139.4219000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P200">
+        <v>227.73072908399601</v>
+      </c>
+      <c r="Q200">
+        <v>509.87370414023354</v>
+      </c>
+      <c r="R200">
+        <v>110.548417908575</v>
+      </c>
+      <c r="S200" s="5">
+        <v>171.36090992430002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42948</v>
       </c>
@@ -19064,8 +21468,20 @@
       <c r="O201" s="2">
         <v>1122.1278</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201">
+        <v>231.77757988300777</v>
+      </c>
+      <c r="Q201">
+        <v>500.15703518429711</v>
+      </c>
+      <c r="R201">
+        <v>108.128397222449</v>
+      </c>
+      <c r="S201" s="5">
+        <v>163.58568150270003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42979</v>
       </c>
@@ -19102,8 +21518,20 @@
       <c r="O202" s="2">
         <v>1111.6744000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P202">
+        <v>226.85284380537061</v>
+      </c>
+      <c r="Q202">
+        <v>466.42776749720514</v>
+      </c>
+      <c r="R202">
+        <v>107.875160626387</v>
+      </c>
+      <c r="S202" s="5">
+        <v>162.5901668393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43009</v>
       </c>
@@ -19140,8 +21568,20 @@
       <c r="O203" s="2">
         <v>1114.1484</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P203">
+        <v>223.55824642048881</v>
+      </c>
+      <c r="Q203">
+        <v>466.13854004211481</v>
+      </c>
+      <c r="R203">
+        <v>105.143715366949</v>
+      </c>
+      <c r="S203" s="5">
+        <v>160.5760760686</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43040</v>
       </c>
@@ -19178,8 +21618,20 @@
       <c r="O204" s="2">
         <v>1128.7449999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204">
+        <v>217.45723034257156</v>
+      </c>
+      <c r="Q204">
+        <v>513.76130903299315</v>
+      </c>
+      <c r="R204">
+        <v>102.91608548046101</v>
+      </c>
+      <c r="S204" s="5">
+        <v>165.98127614379999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43070</v>
       </c>
@@ -19216,8 +21668,20 @@
       <c r="O205" s="2">
         <v>1177.384</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P205">
+        <v>213.13950645555971</v>
+      </c>
+      <c r="Q205">
+        <v>457.24253896771785</v>
+      </c>
+      <c r="R205">
+        <v>100.14335927675501</v>
+      </c>
+      <c r="S205" s="6">
+        <v>160.93214889559999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43101</v>
       </c>
@@ -19254,8 +21718,20 @@
       <c r="O206" s="2">
         <v>1200.0515</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206">
+        <v>252.25985824870384</v>
+      </c>
+      <c r="Q206">
+        <v>406.80275035496157</v>
+      </c>
+      <c r="R206">
+        <v>97.807560518115395</v>
+      </c>
+      <c r="S206" s="5">
+        <v>154.8494572747</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43132</v>
       </c>
@@ -19292,8 +21768,20 @@
       <c r="O207" s="2">
         <v>1160.7607</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P207">
+        <v>256.59228376240651</v>
+      </c>
+      <c r="Q207">
+        <v>440.10229170320014</v>
+      </c>
+      <c r="R207">
+        <v>95.242714050120995</v>
+      </c>
+      <c r="S207" s="5">
+        <v>153.95358375260003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43160</v>
       </c>
@@ -19330,8 +21818,20 @@
       <c r="O208" s="2">
         <v>1111.5305000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P208">
+        <v>259.35079588009694</v>
+      </c>
+      <c r="Q208">
+        <v>411.92685368342148</v>
+      </c>
+      <c r="R208">
+        <v>95.986639191194598</v>
+      </c>
+      <c r="S208" s="5">
+        <v>156.7741788532</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43191</v>
       </c>
@@ -19368,8 +21868,20 @@
       <c r="O209" s="2">
         <v>1135.981</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P209">
+        <v>239.78668937984642</v>
+      </c>
+      <c r="Q209">
+        <v>396.9525116039465</v>
+      </c>
+      <c r="R209">
+        <v>97.469386888496601</v>
+      </c>
+      <c r="S209" s="5">
+        <v>154.94125681220001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43221</v>
       </c>
@@ -19406,8 +21918,20 @@
       <c r="O210" s="2">
         <v>1178.1095</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P210">
+        <v>260.24041092302809</v>
+      </c>
+      <c r="Q210">
+        <v>391.91373662403299</v>
+      </c>
+      <c r="R210">
+        <v>97.008733608194802</v>
+      </c>
+      <c r="S210" s="5">
+        <v>152.00261158090001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43252</v>
       </c>
@@ -19444,8 +21968,20 @@
       <c r="O211" s="2">
         <v>1169.5812000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211">
+        <v>275.44730746424904</v>
+      </c>
+      <c r="Q211">
+        <v>404.84850238748305</v>
+      </c>
+      <c r="R211">
+        <v>96.032166587866499</v>
+      </c>
+      <c r="S211" s="5">
+        <v>152.58811839150002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43282</v>
       </c>
@@ -19482,8 +22018,20 @@
       <c r="O212" s="2">
         <v>1177.9319</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P212">
+        <v>270.61166080388068</v>
+      </c>
+      <c r="Q212">
+        <v>396.90594536796709</v>
+      </c>
+      <c r="R212">
+        <v>94.3238799208725</v>
+      </c>
+      <c r="S212" s="5">
+        <v>153.76652932899998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43313</v>
       </c>
@@ -19520,8 +22068,20 @@
       <c r="O213" s="2">
         <v>1219.3334</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P213">
+        <v>278.01381914048875</v>
+      </c>
+      <c r="Q213">
+        <v>409.70477251419049</v>
+      </c>
+      <c r="R213">
+        <v>93.904637889010303</v>
+      </c>
+      <c r="S213" s="5">
+        <v>154.74754467850002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43344</v>
       </c>
@@ -19558,8 +22118,20 @@
       <c r="O214" s="2">
         <v>1253.2493999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P214">
+        <v>322.67860554213092</v>
+      </c>
+      <c r="Q214">
+        <v>426.20651694274085</v>
+      </c>
+      <c r="R214">
+        <v>92.303345515847596</v>
+      </c>
+      <c r="S214" s="5">
+        <v>155.31859565830001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43374</v>
       </c>
@@ -19596,8 +22168,20 @@
       <c r="O215" s="2">
         <v>1238.2276999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215">
+        <v>317.27769062771819</v>
+      </c>
+      <c r="Q215">
+        <v>391.49263700152903</v>
+      </c>
+      <c r="R215">
+        <v>91.239099659052002</v>
+      </c>
+      <c r="S215" s="5">
+        <v>157.9434400024</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43405</v>
       </c>
@@ -19634,8 +22218,20 @@
       <c r="O216" s="2">
         <v>1199.2539999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P216">
+        <v>300.16781934781716</v>
+      </c>
+      <c r="Q216">
+        <v>423.30375351300222</v>
+      </c>
+      <c r="R216">
+        <v>92.226758019925597</v>
+      </c>
+      <c r="S216" s="5">
+        <v>161.86219245710001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43435</v>
       </c>
@@ -19672,8 +22268,20 @@
       <c r="O217" s="2">
         <v>1142.1691000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P217">
+        <v>297.63830546674075</v>
+      </c>
+      <c r="Q217">
+        <v>455.81764220847941</v>
+      </c>
+      <c r="R217">
+        <v>94.021221045182799</v>
+      </c>
+      <c r="S217" s="6">
+        <v>163.01813469689998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43466</v>
       </c>
@@ -19710,8 +22318,20 @@
       <c r="O218" s="2">
         <v>1029.8921</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P218">
+        <v>249.98718525074008</v>
+      </c>
+      <c r="Q218">
+        <v>380.41913670302267</v>
+      </c>
+      <c r="R218">
+        <v>94.906203340427496</v>
+      </c>
+      <c r="S218" s="5">
+        <v>158.0499273806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43497</v>
       </c>
@@ -19748,8 +22368,20 @@
       <c r="O219" s="2">
         <v>936.99059999999997</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P219">
+        <v>249.42431385103743</v>
+      </c>
+      <c r="Q219">
+        <v>412.91691368255402</v>
+      </c>
+      <c r="R219">
+        <v>98.378603313622904</v>
+      </c>
+      <c r="S219" s="5">
+        <v>155.92875798680001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43525</v>
       </c>
@@ -19786,8 +22418,20 @@
       <c r="O220" s="2">
         <v>911.17070000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P220">
+        <v>252.63811640161359</v>
+      </c>
+      <c r="Q220">
+        <v>395.68474165651202</v>
+      </c>
+      <c r="R220">
+        <v>84.7306800868012</v>
+      </c>
+      <c r="S220" s="5">
+        <v>159.01911821019999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43556</v>
       </c>
@@ -19824,8 +22468,20 @@
       <c r="O221" s="2">
         <v>912.08130000000006</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221">
+        <v>253.09200465319896</v>
+      </c>
+      <c r="Q221">
+        <v>387.24587315499986</v>
+      </c>
+      <c r="R221">
+        <v>78.516832199292494</v>
+      </c>
+      <c r="S221" s="5">
+        <v>154.3576444169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43586</v>
       </c>
@@ -19862,8 +22518,20 @@
       <c r="O222" s="2">
         <v>948.67010000000005</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222">
+        <v>249.40629945831731</v>
+      </c>
+      <c r="Q222">
+        <v>371.89815365265497</v>
+      </c>
+      <c r="R222">
+        <v>57.639264464573401</v>
+      </c>
+      <c r="S222" s="5">
+        <v>151.08232769430001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43617</v>
       </c>
@@ -19900,8 +22568,20 @@
       <c r="O223" s="2">
         <v>982.64139999999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P223">
+        <v>243.74089615190536</v>
+      </c>
+      <c r="Q223">
+        <v>367.69878685791019</v>
+      </c>
+      <c r="R223">
+        <v>59.584904339216997</v>
+      </c>
+      <c r="S223" s="5">
+        <v>149.97121206200001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43647</v>
       </c>
@@ -19938,8 +22618,20 @@
       <c r="O224" s="2">
         <v>978.12660000000005</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224">
+        <v>236.32923140230292</v>
+      </c>
+      <c r="Q224">
+        <v>414.62126794987699</v>
+      </c>
+      <c r="R224">
+        <v>72.590752151047596</v>
+      </c>
+      <c r="S224" s="5">
+        <v>148.6591677525</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43678</v>
       </c>
@@ -19976,8 +22668,20 @@
       <c r="O225" s="2">
         <v>978.82569999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225">
+        <v>267.41480198958408</v>
+      </c>
+      <c r="Q225">
+        <v>399.64972639699914</v>
+      </c>
+      <c r="R225">
+        <v>86.538857476762701</v>
+      </c>
+      <c r="S225" s="5">
+        <v>153.43097331600001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43709</v>
       </c>
@@ -20014,8 +22718,20 @@
       <c r="O226" s="2">
         <v>986.56560000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226">
+        <v>265.45186155037663</v>
+      </c>
+      <c r="Q226">
+        <v>446.19750548225687</v>
+      </c>
+      <c r="R226">
+        <v>92.5793558012723</v>
+      </c>
+      <c r="S226" s="7">
+        <v>156.87475950250001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43739</v>
       </c>
@@ -20052,8 +22768,20 @@
       <c r="O227" s="2">
         <v>1034.6487999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P227">
+        <v>268.93136406660119</v>
+      </c>
+      <c r="Q227">
+        <v>481.11921070139897</v>
+      </c>
+      <c r="R227">
+        <v>97.047075052517499</v>
+      </c>
+      <c r="S227" s="7">
+        <v>166.2942121156</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43770</v>
       </c>
@@ -20090,8 +22818,20 @@
       <c r="O228" s="2">
         <v>1140.6241</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P228">
+        <v>261.05851609375009</v>
+      </c>
+      <c r="Q228">
+        <v>522.20722073045295</v>
+      </c>
+      <c r="R228">
+        <v>100.133233740405</v>
+      </c>
+      <c r="S228" s="7">
+        <v>169.7537670566</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43800</v>
       </c>
@@ -20128,8 +22868,20 @@
       <c r="O229" s="2">
         <v>1248.0841</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P229">
+        <v>256.96879675034199</v>
+      </c>
+      <c r="Q229">
+        <v>533.7696695356949</v>
+      </c>
+      <c r="R229">
+        <v>100.665452991579</v>
+      </c>
+      <c r="S229" s="7">
+        <v>172.91577028059999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43831</v>
       </c>
@@ -20166,8 +22918,20 @@
       <c r="O230" s="2">
         <v>1366.8468</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P230">
+        <v>254.93823538393318</v>
+      </c>
+      <c r="Q230">
+        <v>550.14648811432141</v>
+      </c>
+      <c r="R230">
+        <v>101.356562374441</v>
+      </c>
+      <c r="S230" s="7">
+        <v>186.33138636540002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43862</v>
       </c>
@@ -20204,8 +22968,20 @@
       <c r="O231" s="2">
         <v>1483.1052999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P231">
+        <v>246.34008942931825</v>
+      </c>
+      <c r="Q231">
+        <v>584.55011025565773</v>
+      </c>
+      <c r="R231">
+        <v>102.010704527318</v>
+      </c>
+      <c r="S231" s="7">
+        <v>197.93937552200001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43891</v>
       </c>
@@ -20242,8 +23018,20 @@
       <c r="O232" s="2">
         <v>1518.8770999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P232">
+        <v>223.96786339006738</v>
+      </c>
+      <c r="Q232">
+        <v>562.41941947208261</v>
+      </c>
+      <c r="R232">
+        <v>108.366277942935</v>
+      </c>
+      <c r="S232" s="7">
+        <v>198.0479193932</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43922</v>
       </c>
@@ -20280,8 +23068,20 @@
       <c r="O233" s="2">
         <v>1468.6351</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P233">
+        <v>213.94005630116851</v>
+      </c>
+      <c r="Q233">
+        <v>520.28251351004747</v>
+      </c>
+      <c r="R233">
+        <v>113.90196676236199</v>
+      </c>
+      <c r="S233" s="7">
+        <v>199.46163709700002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43952</v>
       </c>
@@ -20318,8 +23118,20 @@
       <c r="O234" s="2">
         <v>1418.0592999999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P234">
+        <v>207.24318631378296</v>
+      </c>
+      <c r="Q234">
+        <v>572.23967502133428</v>
+      </c>
+      <c r="R234">
+        <v>126.997466850965</v>
+      </c>
+      <c r="S234" s="7">
+        <v>201.4340863761</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43983</v>
       </c>
@@ -20356,8 +23168,20 @@
       <c r="O235" s="2">
         <v>1456.3620000000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P235">
+        <v>223.12451966653194</v>
+      </c>
+      <c r="Q235">
+        <v>557.02151908070152</v>
+      </c>
+      <c r="R235">
+        <v>126.873309913957</v>
+      </c>
+      <c r="S235" s="7">
+        <v>204.7564047953</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44013</v>
       </c>
@@ -20394,8 +23218,20 @@
       <c r="O236" s="2">
         <v>1524.8902</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P236">
+        <v>223.73052060636033</v>
+      </c>
+      <c r="Q236">
+        <v>571.87435449337795</v>
+      </c>
+      <c r="R236">
+        <v>124.115878411363</v>
+      </c>
+      <c r="S236" s="7">
+        <v>200.42072315930002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44044</v>
       </c>
@@ -20432,8 +23268,20 @@
       <c r="O237" s="2">
         <v>1574.4265</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P237">
+        <v>219.39410743445254</v>
+      </c>
+      <c r="Q237">
+        <v>544.88418023384588</v>
+      </c>
+      <c r="R237">
+        <v>121.72027692311801</v>
+      </c>
+      <c r="S237" s="7">
+        <v>199.82062917279998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44075</v>
       </c>
@@ -20470,8 +23318,20 @@
       <c r="O238" s="2">
         <v>1595.5098</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P238">
+        <v>221.55607630041771</v>
+      </c>
+      <c r="Q238">
+        <v>569.04428225663719</v>
+      </c>
+      <c r="R238">
+        <v>115.36746283466501</v>
+      </c>
+      <c r="S238" s="7">
+        <v>203.18102063130002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44105</v>
       </c>
@@ -20508,8 +23368,20 @@
       <c r="O239" s="2">
         <v>1510.7710999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P239">
+        <v>215.11680480404044</v>
+      </c>
+      <c r="Q239">
+        <v>581.5556635926838</v>
+      </c>
+      <c r="R239">
+        <v>111.970235379703</v>
+      </c>
+      <c r="S239" s="7">
+        <v>201.2102112675</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44136</v>
       </c>
@@ -20546,8 +23418,20 @@
       <c r="O240" s="2">
         <v>1387.4573</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P240">
+        <v>222.60786327373546</v>
+      </c>
+      <c r="Q240">
+        <v>609.97160658199846</v>
+      </c>
+      <c r="R240">
+        <v>110.838975548337</v>
+      </c>
+      <c r="S240" s="7">
+        <v>204.59195283450001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44166</v>
       </c>
@@ -20584,8 +23468,20 @@
       <c r="O241" s="2">
         <v>1368.4685999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P241">
+        <v>233.57215170722463</v>
+      </c>
+      <c r="Q241">
+        <v>547.93484253237705</v>
+      </c>
+      <c r="R241">
+        <v>112.707619468781</v>
+      </c>
+      <c r="S241" s="7">
+        <v>205.91941791950001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44197</v>
       </c>
@@ -20622,8 +23518,20 @@
       <c r="O242" s="2">
         <v>1468.6217999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P242">
+        <v>204.21844354933464</v>
+      </c>
+      <c r="Q242">
+        <v>585.12957724323155</v>
+      </c>
+      <c r="R242">
+        <v>111.438366605014</v>
+      </c>
+      <c r="S242" s="7">
+        <v>212.63810300599999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44228</v>
       </c>
@@ -20660,8 +23568,20 @@
       <c r="O243" s="2">
         <v>1593.865</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P243">
+        <v>203.0533105618515</v>
+      </c>
+      <c r="Q243">
+        <v>591.36889774335827</v>
+      </c>
+      <c r="R243">
+        <v>109.729814976105</v>
+      </c>
+      <c r="S243" s="7">
+        <v>220.77910303410002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44256</v>
       </c>
@@ -20698,8 +23618,20 @@
       <c r="O244" s="2">
         <v>1694.9981</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P244">
+        <v>194.06525190381299</v>
+      </c>
+      <c r="Q244">
+        <v>655.93514765019393</v>
+      </c>
+      <c r="R244">
+        <v>105.974937136222</v>
+      </c>
+      <c r="S244" s="7">
+        <v>233.85458757499998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44287</v>
       </c>
@@ -20736,8 +23668,20 @@
       <c r="O245" s="2">
         <v>1737.4419</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P245">
+        <v>192.99436603800609</v>
+      </c>
+      <c r="Q245">
+        <v>646.50318420260567</v>
+      </c>
+      <c r="R245">
+        <v>101.166798438974</v>
+      </c>
+      <c r="S245" s="7">
+        <v>247.75321689040001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44317</v>
       </c>
@@ -20774,8 +23718,20 @@
       <c r="O246" s="2">
         <v>1697.0944999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P246">
+        <v>197.6557353361311</v>
+      </c>
+      <c r="Q246">
+        <v>696.23362769157984</v>
+      </c>
+      <c r="R246">
+        <v>98.907807103662194</v>
+      </c>
+      <c r="S246" s="7">
+        <v>252.65924332340001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44348</v>
       </c>
@@ -20812,8 +23768,20 @@
       <c r="O247" s="2">
         <v>1618.9522999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P247">
+        <v>201.43021830626409</v>
+      </c>
+      <c r="Q247">
+        <v>713.0259824308215</v>
+      </c>
+      <c r="R247">
+        <v>97.938520886266502</v>
+      </c>
+      <c r="S247" s="7">
+        <v>248.2536866566</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44378</v>
       </c>
@@ -20850,8 +23818,20 @@
       <c r="O248" s="2">
         <v>1510.6362999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P248">
+        <v>194.87232703681937</v>
+      </c>
+      <c r="Q248">
+        <v>627.65845222569317</v>
+      </c>
+      <c r="R248">
+        <v>95.778337780145407</v>
+      </c>
+      <c r="S248" s="7">
+        <v>239.97119849890001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44409</v>
       </c>
@@ -20888,8 +23868,20 @@
       <c r="O249" s="2">
         <v>1430.9874</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P249">
+        <v>190.85261652097242</v>
+      </c>
+      <c r="Q249">
+        <v>694.16258138394085</v>
+      </c>
+      <c r="R249">
+        <v>91.695370434203099</v>
+      </c>
+      <c r="S249" s="7">
+        <v>238.46913548969999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44440</v>
       </c>
@@ -20926,8 +23918,20 @@
       <c r="O250" s="2">
         <v>1469.8286000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P250">
+        <v>187.32505136123362</v>
+      </c>
+      <c r="Q250">
+        <v>715.82163687040577</v>
+      </c>
+      <c r="R250">
+        <v>91.815755423343703</v>
+      </c>
+      <c r="S250" s="7">
+        <v>233.54624440009999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44470</v>
       </c>
@@ -20964,8 +23968,20 @@
       <c r="O251" s="2">
         <v>1568.7388000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P251">
+        <v>178.21040950564509</v>
+      </c>
+      <c r="Q251">
+        <v>657.45396871688058</v>
+      </c>
+      <c r="R251">
+        <v>91.076590906032905</v>
+      </c>
+      <c r="S251" s="7">
+        <v>222.4598390264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44501</v>
       </c>
@@ -21002,8 +24018,20 @@
       <c r="O252" s="2">
         <v>1585.9501</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P252">
+        <v>176.03825524319362</v>
+      </c>
+      <c r="Q252">
+        <v>704.24418931987498</v>
+      </c>
+      <c r="R252">
+        <v>89.195000090288801</v>
+      </c>
+      <c r="S252" s="7">
+        <v>224.39475952040002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44531</v>
       </c>
@@ -21040,8 +24068,20 @@
       <c r="O253" s="2">
         <v>1458.5301999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P253">
+        <v>170.80160995296555</v>
+      </c>
+      <c r="Q253">
+        <v>673.77671621278307</v>
+      </c>
+      <c r="R253">
+        <v>86.585782142993594</v>
+      </c>
+      <c r="S253" s="7">
+        <v>219.1648356387</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44562</v>
       </c>
@@ -21078,8 +24118,20 @@
       <c r="O254" s="2">
         <v>1240.2097000000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P254">
+        <v>197.96402291544791</v>
+      </c>
+      <c r="Q254">
+        <v>747.41979540776947</v>
+      </c>
+      <c r="R254">
+        <v>85.398575864114207</v>
+      </c>
+      <c r="S254" s="7">
+        <v>214.69194143229998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44593</v>
       </c>
@@ -21116,8 +24168,20 @@
       <c r="O255" s="2">
         <v>1067.1087</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P255">
+        <v>204.40228361121999</v>
+      </c>
+      <c r="Q255">
+        <v>759.91171324920299</v>
+      </c>
+      <c r="R255">
+        <v>88.829358110773001</v>
+      </c>
+      <c r="S255" s="7">
+        <v>217.48275111140001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44621</v>
       </c>
@@ -21154,8 +24218,20 @@
       <c r="O256" s="2">
         <v>1024.0175999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P256">
+        <v>206.23783982353879</v>
+      </c>
+      <c r="Q256">
+        <v>705.97362764767297</v>
+      </c>
+      <c r="R256">
+        <v>92.834513874510606</v>
+      </c>
+      <c r="S256" s="7">
+        <v>219.03434524529999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44652</v>
       </c>
@@ -21192,8 +24268,20 @@
       <c r="O257" s="2">
         <v>1065.6815999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P257">
+        <v>209.5067390187869</v>
+      </c>
+      <c r="Q257">
+        <v>721.73618284614031</v>
+      </c>
+      <c r="R257">
+        <v>93.509242992193506</v>
+      </c>
+      <c r="S257" s="7">
+        <v>220.32555376709999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44682</v>
       </c>
@@ -21230,8 +24318,20 @@
       <c r="O258" s="2">
         <v>1065.8652</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P258">
+        <v>200.95433406805375</v>
+      </c>
+      <c r="Q258">
+        <v>653.01155601156859</v>
+      </c>
+      <c r="R258">
+        <v>94.129796447387207</v>
+      </c>
+      <c r="S258" s="7">
+        <v>211.6883040658</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44713</v>
       </c>
@@ -21268,8 +24368,20 @@
       <c r="O259" s="2">
         <v>996.11760000000004</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P259">
+        <v>197.31966101778272</v>
+      </c>
+      <c r="Q259">
+        <v>616.67132408517705</v>
+      </c>
+      <c r="R259">
+        <v>93.418637297161695</v>
+      </c>
+      <c r="S259" s="7">
+        <v>204.23594664320001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44743</v>
       </c>
@@ -21306,8 +24418,20 @@
       <c r="O260" s="2">
         <v>965.92420000000004</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P260">
+        <v>181.91974435116819</v>
+      </c>
+      <c r="Q260">
+        <v>632.57470673011642</v>
+      </c>
+      <c r="R260">
+        <v>94.694081059467607</v>
+      </c>
+      <c r="S260" s="7">
+        <v>202.66260342479998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44774</v>
       </c>
@@ -21344,8 +24468,20 @@
       <c r="O261" s="2">
         <v>951.49950000000001</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P261">
+        <v>184.71736888724274</v>
+      </c>
+      <c r="Q261">
+        <v>601.11610733785074</v>
+      </c>
+      <c r="R261">
+        <v>96.818617152464498</v>
+      </c>
+      <c r="S261" s="7">
+        <v>197.13507049059999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44805</v>
       </c>
@@ -21382,8 +24518,20 @@
       <c r="O262" s="2">
         <v>878.70429999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P262">
+        <v>181.35444829883824</v>
+      </c>
+      <c r="Q262">
+        <v>608.19114890523736</v>
+      </c>
+      <c r="R262">
+        <v>96.219914414639604</v>
+      </c>
+      <c r="S262" s="7">
+        <v>198.08185096460002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44835</v>
       </c>
@@ -21420,8 +24568,20 @@
       <c r="O263" s="2">
         <v>843.67489999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P263">
+        <v>181.69783151118901</v>
+      </c>
+      <c r="Q263">
+        <v>693.54598930438567</v>
+      </c>
+      <c r="R263">
+        <v>97.473432517531506</v>
+      </c>
+      <c r="S263" s="7">
+        <v>194.03383039240001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44866</v>
       </c>
@@ -21458,8 +24618,20 @@
       <c r="O264" s="2">
         <v>878.02719999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P264">
+        <v>184.85181339014579</v>
+      </c>
+      <c r="Q264">
+        <v>706.33422684353604</v>
+      </c>
+      <c r="R264">
+        <v>97.736283672158606</v>
+      </c>
+      <c r="S264" s="7">
+        <v>194.16746098760001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44896</v>
       </c>
@@ -21496,8 +24668,20 @@
       <c r="O265" s="2">
         <v>928.70389999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P265">
+        <v>190.73572779139266</v>
+      </c>
+      <c r="Q265">
+        <v>608.38399369221349</v>
+      </c>
+      <c r="R265">
+        <v>96.864579423734497</v>
+      </c>
+      <c r="S265" s="7">
+        <v>195.24772554180001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44927</v>
       </c>
@@ -21534,8 +24718,20 @@
       <c r="O266" s="2">
         <v>1015.6466</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P266">
+        <v>245.07734573865793</v>
+      </c>
+      <c r="Q266">
+        <v>576.26717354317157</v>
+      </c>
+      <c r="R266">
+        <v>97.723214891246201</v>
+      </c>
+      <c r="S266" s="7">
+        <v>189.874103174</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44958</v>
       </c>
@@ -21572,8 +24768,20 @@
       <c r="O267" s="2">
         <v>1121.0871999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P267">
+        <v>244.93704766306655</v>
+      </c>
+      <c r="Q267">
+        <v>572.09240573636714</v>
+      </c>
+      <c r="R267">
+        <v>97.329035374518895</v>
+      </c>
+      <c r="S267" s="7">
+        <v>183.43478067890001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44986</v>
       </c>
@@ -21610,8 +24818,20 @@
       <c r="O268" s="2">
         <v>1177.3047999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P268">
+        <v>240.71393939815798</v>
+      </c>
+      <c r="Q268">
+        <v>520.08639022152283</v>
+      </c>
+      <c r="R268">
+        <v>95.958229484987299</v>
+      </c>
+      <c r="S268" s="7">
+        <v>181.2927197002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45017</v>
       </c>
@@ -21648,8 +24868,20 @@
       <c r="O269" s="2">
         <v>1206.2943</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P269">
+        <v>246.23276211895492</v>
+      </c>
+      <c r="Q269">
+        <v>506.81185571278405</v>
+      </c>
+      <c r="R269">
+        <v>97.115832734882403</v>
+      </c>
+      <c r="S269" s="7">
+        <v>183.8654933162</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45047</v>
       </c>
@@ -21686,8 +24918,20 @@
       <c r="O270" s="2">
         <v>1271.2343000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P270">
+        <v>245.74201096869643</v>
+      </c>
+      <c r="Q270">
+        <v>523.84378248975975</v>
+      </c>
+      <c r="R270">
+        <v>97.952216989362498</v>
+      </c>
+      <c r="S270" s="7">
+        <v>180.95405113710001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45078</v>
       </c>
@@ -21724,8 +24968,20 @@
       <c r="O271" s="2">
         <v>1315.3701000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P271">
+        <v>254.76630493735146</v>
+      </c>
+      <c r="Q271">
+        <v>520.0413921041328</v>
+      </c>
+      <c r="R271">
+        <v>98.185712952913605</v>
+      </c>
+      <c r="S271" s="7">
+        <v>186.57492309559998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45108</v>
       </c>
@@ -21762,8 +25018,20 @@
       <c r="O272" s="2">
         <v>1283.4033999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P272">
+        <v>259.6945306570446</v>
+      </c>
+      <c r="Q272">
+        <v>532.7484960136137</v>
+      </c>
+      <c r="R272">
+        <v>97.349675024135493</v>
+      </c>
+      <c r="S272" s="7">
+        <v>184.39698708350002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45139</v>
       </c>
@@ -21800,8 +25068,20 @@
       <c r="O273" s="2">
         <v>1259.3241</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P273">
+        <v>274.60483121959771</v>
+      </c>
+      <c r="Q273">
+        <v>556.07563052616626</v>
+      </c>
+      <c r="R273">
+        <v>96.918148765344199</v>
+      </c>
+      <c r="S273" s="7">
+        <v>180.2363265816</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45170</v>
       </c>
@@ -21838,8 +25118,20 @@
       <c r="O274" s="2">
         <v>1303.5952</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P274">
+        <v>263.21447722735547</v>
+      </c>
+      <c r="Q274">
+        <v>540.53528516333267</v>
+      </c>
+      <c r="R274">
+        <v>97.554087453959198</v>
+      </c>
+      <c r="S274" s="7">
+        <v>182.79522150119999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45200</v>
       </c>
@@ -21876,8 +25168,20 @@
       <c r="O275" s="2">
         <v>1345.0228</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P275">
+        <v>238.10494779151222</v>
+      </c>
+      <c r="Q275">
+        <v>580.81112193525439</v>
+      </c>
+      <c r="R275">
+        <v>97.431750602382195</v>
+      </c>
+      <c r="S275" s="7">
+        <v>185.79288412529999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45231</v>
       </c>
@@ -21914,8 +25218,20 @@
       <c r="O276" s="2">
         <v>1367.6139000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P276">
+        <v>220.31800086166618</v>
+      </c>
+      <c r="Q276">
+        <v>564.0357403001409</v>
+      </c>
+      <c r="R276">
+        <v>99.261270640813805</v>
+      </c>
+      <c r="S276" s="7">
+        <v>184.33258993090001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45261</v>
       </c>
@@ -21952,8 +25268,20 @@
       <c r="O277" s="2">
         <v>1381.5748000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P277">
+        <v>321.03937010962807</v>
+      </c>
+      <c r="Q277">
+        <v>554.42579565481515</v>
+      </c>
+      <c r="R277">
+        <v>100.00995288054899</v>
+      </c>
+      <c r="S277" s="7">
+        <v>182.2867095176</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45292</v>
       </c>
@@ -21975,8 +25303,14 @@
       <c r="J278" s="1"/>
       <c r="K278" s="2"/>
       <c r="O278" s="2"/>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P278">
+        <v>290.87946207524442</v>
+      </c>
+      <c r="Q278">
+        <v>482.60193165156431</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45323</v>
       </c>
@@ -21998,8 +25332,14 @@
       <c r="J279" s="1"/>
       <c r="K279" s="2"/>
       <c r="O279" s="2"/>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P279">
+        <v>261.59910424461663</v>
+      </c>
+      <c r="Q279">
+        <v>549.54271582759259</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45352</v>
       </c>
@@ -22021,8 +25361,14 @@
       <c r="J280" s="1"/>
       <c r="K280" s="2"/>
       <c r="O280" s="2"/>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P280">
+        <v>240.04555490239187</v>
+      </c>
+      <c r="Q280">
+        <v>497.20884966261184</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45383</v>
       </c>
@@ -22044,8 +25390,14 @@
       <c r="J281" s="1"/>
       <c r="K281" s="2"/>
       <c r="O281" s="2"/>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P281">
+        <v>220.56812514142982</v>
+      </c>
+      <c r="Q281">
+        <v>508.23226070339535</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>45413</v>
       </c>
@@ -22067,8 +25419,14 @@
       <c r="J282" s="1"/>
       <c r="K282" s="2"/>
       <c r="O282" s="2"/>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P282">
+        <v>217.16784439550412</v>
+      </c>
+      <c r="Q282">
+        <v>518.43468124909043</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45444</v>
       </c>
@@ -22090,8 +25448,14 @@
       <c r="J283" s="1"/>
       <c r="K283" s="2"/>
       <c r="O283" s="2"/>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P283">
+        <v>202.78698356867335</v>
+      </c>
+      <c r="Q283">
+        <v>492.19881379402938</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>45474</v>
       </c>
@@ -22113,8 +25477,14 @@
       <c r="J284" s="1"/>
       <c r="K284" s="2"/>
       <c r="O284" s="2"/>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P284">
+        <v>195.92075191523233</v>
+      </c>
+      <c r="Q284">
+        <v>524.15521632509069</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45505</v>
       </c>
@@ -22136,8 +25506,14 @@
       <c r="J285" s="1"/>
       <c r="K285" s="2"/>
       <c r="O285" s="2"/>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P285">
+        <v>192.1537670810761</v>
+      </c>
+      <c r="Q285">
+        <v>524.31529296418989</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>45536</v>
       </c>
@@ -22159,8 +25535,11 @@
       <c r="J286" s="1"/>
       <c r="K286" s="2"/>
       <c r="O286" s="2"/>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P286">
+        <v>190.49434983614705</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>45566</v>
       </c>
@@ -22182,8 +25561,11 @@
       <c r="J287" s="1"/>
       <c r="K287" s="2"/>
       <c r="O287" s="2"/>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P287">
+        <v>187.62311955295971</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>45597</v>
       </c>
@@ -22205,8 +25587,11 @@
       <c r="J288" s="1"/>
       <c r="K288" s="2"/>
       <c r="O288" s="2"/>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P288">
+        <v>182.28044435756038</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>45627</v>
       </c>
@@ -22228,8 +25613,11 @@
       <c r="J289" s="1"/>
       <c r="K289" s="2"/>
       <c r="O289" s="2"/>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P289">
+        <v>174.74789557736887</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45658</v>
       </c>
@@ -22248,8 +25636,11 @@
       <c r="F290" s="2">
         <v>1367.4395999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>45689</v>
       </c>
@@ -22268,8 +25659,11 @@
       <c r="F291" s="2">
         <v>1340.5134</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45717</v>
       </c>
@@ -22288,8 +25682,11 @@
       <c r="F292" s="2">
         <v>1262.2370000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>45748</v>
       </c>
@@ -22308,8 +25705,11 @@
       <c r="F293" s="2">
         <v>1170.81</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45778</v>
       </c>
@@ -22328,8 +25728,11 @@
       <c r="F294" s="2">
         <v>1157.4718</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>45809</v>
       </c>
@@ -22348,8 +25751,11 @@
       <c r="F295" s="2">
         <v>1239.674</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>45839</v>
       </c>
@@ -22368,8 +25774,11 @@
       <c r="F296" s="2">
         <v>1370.5885000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>45870</v>
       </c>
@@ -22388,8 +25797,11 @@
       <c r="F297" s="2">
         <v>1473.4321</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>45901</v>
       </c>
@@ -22408,8 +25820,11 @@
       <c r="F298" s="2">
         <v>1514.8584000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>45931</v>
       </c>
@@ -22428,8 +25843,11 @@
       <c r="F299" s="2">
         <v>1504.2166999999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>45962</v>
       </c>
@@ -22445,8 +25863,11 @@
       <c r="F300" s="2">
         <v>1492.8128999999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>45992</v>
       </c>
@@ -22461,6 +25882,9 @@
       </c>
       <c r="F301" s="2">
         <v>1486.0785000000001</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos de trabajo/Yami/ajuste/datos.xlsx
+++ b/Archivos de trabajo/Yami/ajuste/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcorvalan\Desktop\Trabajo\Paper-ITCRM.SF\Archivos de trabajo\Yami\ajuste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Yami/ajuste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2ED906-6A9D-47B5-952E-D3128330242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9B2ED906-6A9D-47B5-952E-D3128330242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F57F005-63C4-4DD3-A98E-C3B630640436}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>X_FOB</t>
   </si>
@@ -86,6 +77,12 @@
   </si>
   <si>
     <t>ITCRM_SFE_BCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes Food, Beverage, and Raw Materials </t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
@@ -185,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +197,9 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -489,9 +489,9 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>36892</v>
       </c>
@@ -555,7 +555,7 @@
         <v>320.46420000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>36923</v>
       </c>
@@ -587,7 +587,7 @@
         <v>326.84930000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>36951</v>
       </c>
@@ -619,7 +619,7 @@
         <v>345.20569999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>36982</v>
       </c>
@@ -651,7 +651,7 @@
         <v>360.21319999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>37012</v>
       </c>
@@ -683,7 +683,7 @@
         <v>380.30869999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37043</v>
       </c>
@@ -715,7 +715,7 @@
         <v>407.43990000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37073</v>
       </c>
@@ -747,7 +747,7 @@
         <v>418.75670000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37104</v>
       </c>
@@ -779,7 +779,7 @@
         <v>426.17590000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37135</v>
       </c>
@@ -811,7 +811,7 @@
         <v>444.517</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37165</v>
       </c>
@@ -843,7 +843,7 @@
         <v>456.59640000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37196</v>
       </c>
@@ -875,7 +875,7 @@
         <v>450.36250000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>37226</v>
       </c>
@@ -907,7 +907,7 @@
         <v>447.17700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>37257</v>
       </c>
@@ -945,7 +945,7 @@
         <v>456.02789999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>37288</v>
       </c>
@@ -983,7 +983,7 @@
         <v>458.07209999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>37316</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>456.67169999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>37347</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>478.97919999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>37377</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>513.78710000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37408</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>532.60119999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37438</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>533.89390000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>37469</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>520.15170000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>37500</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>522.00750000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>37530</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>549.55579999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>37561</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>569.17240000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>37591</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>573.52670000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>594.41999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>37653</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>613.62189999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>37681</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>607.58399999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>37712</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>607.8827</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>37742</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>597.48710000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>37773</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>579.33199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>37803</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>579.97550000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>37834</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>576.78750000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>37865</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>557.69039999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>37895</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>549.91390000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>37926</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>565.12400000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37956</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>574.25289999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37987</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>571.49260000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38018</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>587.48230000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38047</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>629.2894</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38078</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>646.25250000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38108</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>638.05719999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>38139</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>646.67309999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>38169</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>671.85659999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>38200</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>693.45129999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>38231</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>678.61199999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>38261</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>641.721</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>38292</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>634.38919999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>38322</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>670.93349999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>38353</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>700.11260000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>38384</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>697.89189999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>38412</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>699.22209999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>38443</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>703.79589999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>38473</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>696.53830000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>38504</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>683.63599999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>38534</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>686.0933</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>38565</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>714.62530000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>38596</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>758.8501</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>38626</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>801.35569999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>38657</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>847.27290000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>38687</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>866.82420000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>38718</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>865.45929999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>38749</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>904.40060000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>38777</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>921.3374</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>38808</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>904.89869999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>38838</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>918.78129999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>38869</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>949.57659999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>38899</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>983.03549999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>38930</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>1034.4897000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>38961</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1143.4401</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>38991</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1265.2637999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>39022</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1340.9438</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>39052</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>1404.5949000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>39083</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1420.1165000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>39114</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1366.8909000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>39142</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1284.8869</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>39173</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1242.3284000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>39203</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1283.6079</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>39234</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1318.021</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>39264</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>1360.8966</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>39295</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1402.99</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>39326</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1349.6432</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>39356</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>1258.9987000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>39387</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1141.3106</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>39417</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>1042.2585999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>39448</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1053.1383000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>39479</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1083.8318999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>39508</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1110.0746999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>39539</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1136.309</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>39569</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1133.2645</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>39600</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1138.6708000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>39630</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1076.5003999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>39661</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>973.77380000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>39692</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>953.2509</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>39722</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1009.1152</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>39753</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1105.6613</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>39783</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>1158.2337</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>39814</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>1139.5231000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>39845</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1144.4918</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>39873</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1223.2724000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>39904</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1296.6224999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>39934</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1303.2112999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>39965</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>1294.8811000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>39995</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>1291.57</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>40026</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>1313.8598</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>40057</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1379.2733000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>40087</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1429.6018999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>40118</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1443.4126000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>40148</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>1479.7981</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>40179</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1565.0299</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>40210</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1636.2991</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>40238</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>1635.2581</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>40269</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>1596.7049</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>40299</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1589.7045000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>40330</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>1576.4222</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>40360</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1558.4712</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>40391</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>1592.7067999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>40422</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1641.8677</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>40452</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1613.8737000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>40483</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1536.1813</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>40513</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1511.05</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>40544</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1509.4676999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>40575</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1530.2827</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>40603</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1533.6239</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>40634</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>1466.2879</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>40664</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1425.626</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>40695</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1453.3127999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>40725</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1503.3362</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>40756</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1511.9749999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>40787</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1461.8110999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>40817</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1437.2759000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>40848</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1452.174</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>40878</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1453.4942000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>40909</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>1436.7316000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>40940</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1389.6337000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>40969</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1393.6171999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>41000</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1467.6312</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>41030</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>1471.8343</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>41061</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>1429.4069</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>41091</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1464.3489</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>41122</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1507.6697999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>41153</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1426.9260999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>41183</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1294.7343000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>41214</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1255.5481</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>41244</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>1245.3624</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>41275</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1188.7746999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>41306</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1204.8489</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>41334</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1301.1232</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>41365</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1393.2784999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>41395</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1477.5983000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>41426</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1490.1215</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>41456</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>1412.2644</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>41487</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1312.6164000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>41518</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>1244.5878</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>41548</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1246.6498999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>41579</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1234.7229</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>41609</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>1158.7885000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>41640</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>1122.7543000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>41671</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1125.7872</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>41699</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1118.9372000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>41730</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1142.7679000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>41760</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>1177.6619000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>41791</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>1215.7084</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>41821</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1203.7311</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>41852</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1162.2070000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>41883</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1184.6180999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>41913</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1162.1560999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>41944</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>1122.1086</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>41974</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>1162.2161000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42005</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>1207.587</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42036</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>1185.3707999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42064</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>1108.2049999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42095</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>1055.3875</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42125</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1061.9935</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42156</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1054.2065</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42186</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1066.075</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42217</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>1123.181</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42248</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>1157.8206</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>42278</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>1229.4866999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>42309</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1300.548</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>42339</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1297.6201000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42370</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>1232.8439000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42401</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1181.4414999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42430</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1195.4322</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42461</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1178.5141000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42491</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1112.0594000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42522</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1083.1866</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42552</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1102.6926000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42583</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1114.8734999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42614</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>1114.4921999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42644</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1111.8051</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42675</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1093.8810000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42705</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1094.2577000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42736</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1139.492</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42767</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>1189.3267000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42795</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>1195.9293</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42826</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1139.0728999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42856</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1089.7268999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42887</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>1112.3929000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42917</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1139.4219000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42948</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>1122.1278</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42979</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>1111.6744000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43009</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1114.1484</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43040</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1128.7449999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43070</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1177.384</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43101</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1200.0515</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43132</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>1160.7607</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43160</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1111.5305000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43191</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>1135.981</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43221</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>1178.1095</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43252</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1169.5812000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43282</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1177.9319</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43313</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1219.3334</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43344</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1253.2493999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43374</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1238.2276999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43405</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1199.2539999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43435</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>1142.1691000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43466</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1029.8921</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43497</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>936.99059999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43525</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>911.17070000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43556</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>912.08130000000006</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43586</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>948.67010000000005</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43617</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>982.64139999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43647</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>978.12660000000005</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43678</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>978.82569999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43709</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>986.56560000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43739</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>1034.6487999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43770</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1140.6241</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43800</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1248.0841</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43831</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1366.8468</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43862</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1483.1052999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43891</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1518.8770999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43922</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1468.6351</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43952</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1418.0592999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43983</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>1456.3620000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44013</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>1524.8902</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44044</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1574.4265</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44075</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>1595.5098</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44105</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1510.7710999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44136</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>1387.4573</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44166</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1368.4685999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44197</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1468.6217999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44228</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1593.865</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44256</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1694.9981</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44287</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1737.4419</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44317</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>1697.0944999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44348</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1618.9522999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44378</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1510.6362999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44409</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1430.9874</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44440</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>1469.8286000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44470</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>1568.7388000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44501</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1585.9501</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44531</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1458.5301999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44562</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1240.2097000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44593</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1067.1087</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44621</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>1024.0175999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44652</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>1065.6815999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44682</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>1065.8652</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44713</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>996.11760000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44743</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>965.92420000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44774</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>951.49950000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44805</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>878.70429999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44835</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>843.67489999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44866</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>878.02719999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44896</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>928.70389999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44927</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1015.6466</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44958</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1121.0871999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44986</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1177.3047999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45017</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1206.2943</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45047</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1271.2343000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45078</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>1315.3701000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45108</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1283.4033999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45139</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1259.3241</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45170</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1303.5952</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45200</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>1345.0228</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45231</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>1367.6139000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45261</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>1381.5748000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45292</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1367.4395999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45323</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1340.5134</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45352</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>1262.2370000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45383</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1170.81</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45413</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>1157.4718</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45444</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1239.674</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45474</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1370.5885000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45505</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1473.4321</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45536</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1514.8584000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45566</v>
       </c>
@@ -11304,7 +11304,7 @@
       <c r="K287" s="2"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45597</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="K288" s="2"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45627</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="K289" s="2"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45658</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>1367.4395999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45689</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>1340.5134</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45717</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>1262.2370000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45748</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>1170.81</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45778</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>1157.4718</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45809</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>1239.674</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45839</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>1370.5885000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45870</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>1473.4321</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45901</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>1514.8584000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45931</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>1504.2166999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45962</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>1492.8128999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45992</v>
       </c>
@@ -11591,24 +11591,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09B735-E846-4041-883C-F51930DF08A8}">
-  <dimension ref="A1:S302"/>
+  <dimension ref="A1:T302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11651,8 +11651,11 @@
       <c r="S1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
@@ -11680,8 +11683,11 @@
       <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>36892</v>
       </c>
@@ -11721,8 +11727,11 @@
       <c r="R3">
         <v>87.587621905491304</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>46.624590750869999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>36923</v>
       </c>
@@ -11762,8 +11771,11 @@
       <c r="R4">
         <v>90.724946808338302</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>46.640532465150002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>36951</v>
       </c>
@@ -11803,8 +11815,11 @@
       <c r="R5">
         <v>97.641425038433297</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>47.571994287050003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36982</v>
       </c>
@@ -11844,8 +11859,11 @@
       <c r="R6">
         <v>105.31749988977199</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>47.580209318599998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37012</v>
       </c>
@@ -11885,8 +11903,11 @@
       <c r="R7">
         <v>107.473509315103</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>48.249736254879998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37043</v>
       </c>
@@ -11926,8 +11947,11 @@
       <c r="R8">
         <v>107.35459241036401</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>50.019552778349997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37073</v>
       </c>
@@ -11967,8 +11991,11 @@
       <c r="R9">
         <v>106.141949210273</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>51.667049123090003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37104</v>
       </c>
@@ -12008,8 +12035,11 @@
       <c r="R10">
         <v>105.170789445957</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>52.437226397570001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37135</v>
       </c>
@@ -12049,8 +12079,11 @@
       <c r="R11">
         <v>102.312934924019</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>54.219228396570003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37165</v>
       </c>
@@ -12090,8 +12123,11 @@
       <c r="R12">
         <v>103.72732458581601</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>54.331940793069997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>37196</v>
       </c>
@@ -12131,8 +12167,11 @@
       <c r="R13">
         <v>101.322236576311</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>53.595102438209999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>37226</v>
       </c>
@@ -12172,8 +12211,11 @@
       <c r="R14">
         <v>101.594006746594</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>54.662523956130002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>37257</v>
       </c>
@@ -12219,8 +12261,11 @@
       <c r="R15">
         <v>98.926550426619897</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>54.94956969423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>37288</v>
       </c>
@@ -12266,8 +12311,11 @@
       <c r="R16">
         <v>97.778112060043696</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>54.932630023359998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>37316</v>
       </c>
@@ -12313,8 +12361,11 @@
       <c r="R17">
         <v>96.002081995884396</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>54.261155031569999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>37347</v>
       </c>
@@ -12360,8 +12411,11 @@
       <c r="R18">
         <v>91.478614894869295</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>53.788111697669997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37377</v>
       </c>
@@ -12407,8 +12461,11 @@
       <c r="R19">
         <v>91.245763584079796</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>53.366316882950002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37408</v>
       </c>
@@ -12454,8 +12511,11 @@
       <c r="R20">
         <v>91.217742040422806</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>52.861152292850001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>37438</v>
       </c>
@@ -12501,8 +12561,11 @@
       <c r="R21">
         <v>93.110079078088305</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>52.303342216639997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>37469</v>
       </c>
@@ -12548,8 +12611,11 @@
       <c r="R22">
         <v>96.434521879773101</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>53.123710490240001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>37500</v>
       </c>
@@ -12595,8 +12661,11 @@
       <c r="R23">
         <v>100.551812173489</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>54.470665083950003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>37530</v>
       </c>
@@ -12642,8 +12711,11 @@
       <c r="R24">
         <v>103.50849587281201</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>57.443360542039997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>37561</v>
       </c>
@@ -12689,8 +12761,11 @@
       <c r="R25">
         <v>109.687631847009</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>58.929426276569998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>37591</v>
       </c>
@@ -12736,8 +12811,11 @@
       <c r="R26">
         <v>108.84450061305</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>58.828002456839997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>37622</v>
       </c>
@@ -12786,8 +12864,11 @@
       <c r="S27" s="5">
         <v>105.8591537149</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>60.466705089469997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>37653</v>
       </c>
@@ -12836,8 +12917,11 @@
       <c r="S28" s="5">
         <v>107.36213757749999</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>61.996170703319997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>37681</v>
       </c>
@@ -12886,8 +12970,11 @@
       <c r="S29" s="5">
         <v>107.77870870759999</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>64.116130740830002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>37712</v>
       </c>
@@ -12936,8 +13023,11 @@
       <c r="S30" s="5">
         <v>109.39948717</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>63.659374804579997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>37742</v>
       </c>
@@ -12986,8 +13076,11 @@
       <c r="S31" s="5">
         <v>111.59527864990001</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>62.382615469420003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>37773</v>
       </c>
@@ -13036,8 +13129,11 @@
       <c r="S32" s="5">
         <v>104.8052341801</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>61.12679523037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>37803</v>
       </c>
@@ -13086,8 +13182,11 @@
       <c r="S33" s="5">
         <v>100.18367755560001</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>59.826510557490003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>37834</v>
       </c>
@@ -13136,8 +13235,11 @@
       <c r="S34" s="5">
         <v>92.178886444599996</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>59.004407723299998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>37865</v>
       </c>
@@ -13186,8 +13288,11 @@
       <c r="S35" s="5">
         <v>93.837435999799993</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>58.774606375010002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>37895</v>
       </c>
@@ -13236,8 +13341,11 @@
       <c r="S36" s="5">
         <v>93.108672835800007</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>57.946429327490002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37926</v>
       </c>
@@ -13286,8 +13394,11 @@
       <c r="S37" s="5">
         <v>91.394773506299998</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>58.280225900950001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37956</v>
       </c>
@@ -13336,8 +13447,11 @@
       <c r="S38" s="6">
         <v>88.496553657799993</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>58.618384793879997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37987</v>
       </c>
@@ -13386,8 +13500,11 @@
       <c r="S39" s="5">
         <v>90.787912601599999</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>59.030469062569999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38018</v>
       </c>
@@ -13436,8 +13553,11 @@
       <c r="S40" s="5">
         <v>90.200527412</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>61.0016732546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38047</v>
       </c>
@@ -13486,8 +13606,11 @@
       <c r="S41" s="5">
         <v>92.311559986500001</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>63.982817260429997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38078</v>
       </c>
@@ -13536,8 +13659,11 @@
       <c r="S42" s="5">
         <v>95.328351143700004</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>62.484733539490001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>38108</v>
       </c>
@@ -13586,8 +13712,11 @@
       <c r="S43" s="5">
         <v>95.540261852</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>62.283119886839998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>38139</v>
       </c>
@@ -13636,8 +13765,11 @@
       <c r="S44" s="5">
         <v>96.831387004299998</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>62.150263486930001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>38169</v>
       </c>
@@ -13686,8 +13818,11 @@
       <c r="S45" s="5">
         <v>97.409067419199999</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>61.950655105929997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>38200</v>
       </c>
@@ -13736,8 +13871,11 @@
       <c r="S46" s="5">
         <v>96.6983182516</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>61.14650961441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>38231</v>
       </c>
@@ -13786,8 +13924,11 @@
       <c r="S47" s="5">
         <v>96.292614329300008</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>61.815051529439998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>38261</v>
       </c>
@@ -13836,8 +13977,11 @@
       <c r="S48" s="5">
         <v>95.295626061600004</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>62.673274206489999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>38292</v>
       </c>
@@ -13886,8 +14030,11 @@
       <c r="S49" s="5">
         <v>95.994561657700004</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>62.045938353570001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>38322</v>
       </c>
@@ -13936,8 +14083,11 @@
       <c r="S50" s="6">
         <v>93.40981228070001</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>63.433525940469998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>38353</v>
       </c>
@@ -13986,8 +14136,11 @@
       <c r="S51" s="5">
         <v>95.110383362600004</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>65.567681775279993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>38384</v>
       </c>
@@ -14036,8 +14189,11 @@
       <c r="S52" s="5">
         <v>97.09937406920001</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>67.551724983469995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>38412</v>
       </c>
@@ -14086,8 +14242,11 @@
       <c r="S53" s="5">
         <v>96.09024256810001</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>66.401854874400001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>38443</v>
       </c>
@@ -14136,8 +14295,11 @@
       <c r="S54" s="5">
         <v>93.178502803400008</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>66.555608753569999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>38473</v>
       </c>
@@ -14186,8 +14348,11 @@
       <c r="S55" s="5">
         <v>94.863326217799994</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>68.972502937749994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>38504</v>
       </c>
@@ -14236,8 +14401,11 @@
       <c r="S56" s="5">
         <v>97.858170978800004</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>67.687679801559995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>38534</v>
       </c>
@@ -14286,8 +14454,11 @@
       <c r="S57" s="5">
         <v>99.772824844699997</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>68.358535310959994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>38565</v>
       </c>
@@ -14336,8 +14507,11 @@
       <c r="S58" s="5">
         <v>100.1762537777</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>68.322272352880006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>38596</v>
       </c>
@@ -14386,8 +14560,11 @@
       <c r="S59" s="5">
         <v>103.3509213776</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>67.631839859059994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>38626</v>
       </c>
@@ -14436,8 +14613,11 @@
       <c r="S60" s="5">
         <v>102.8233361564</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>69.236917202699999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>38657</v>
       </c>
@@ -14486,8 +14666,11 @@
       <c r="S61" s="5">
         <v>104.7213888384</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>71.565602445530004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>38687</v>
       </c>
@@ -14536,8 +14719,11 @@
       <c r="S62" s="6">
         <v>106.5552750052</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>72.676167699060002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>38718</v>
       </c>
@@ -14586,8 +14772,11 @@
       <c r="S63" s="5">
         <v>107.32907288930001</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>73.430880519379997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>38749</v>
       </c>
@@ -14636,8 +14825,11 @@
       <c r="S64" s="5">
         <v>110.3725570631</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>75.366541297840001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>38777</v>
       </c>
@@ -14686,8 +14878,11 @@
       <c r="S65" s="5">
         <v>112.5983700476</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>75.258761484019999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>38808</v>
       </c>
@@ -14736,8 +14931,11 @@
       <c r="S66" s="5">
         <v>109.8236404199</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>75.688758386290004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>38838</v>
       </c>
@@ -14786,8 +14984,11 @@
       <c r="S67" s="5">
         <v>112.2066201282</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>77.250180845190002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>38869</v>
       </c>
@@ -14836,8 +15037,11 @@
       <c r="S68" s="5">
         <v>114.26973945180001</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>79.797470066629998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>38899</v>
       </c>
@@ -14886,8 +15090,11 @@
       <c r="S69" s="5">
         <v>117.9052497489</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>81.364146002390001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>38930</v>
       </c>
@@ -14936,8 +15143,11 @@
       <c r="S70" s="5">
         <v>122.5589665417</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>81.741699295160004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>38961</v>
       </c>
@@ -14986,8 +15196,11 @@
       <c r="S71" s="5">
         <v>127.0357837095</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>85.154845021249997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>38991</v>
       </c>
@@ -15036,8 +15249,11 @@
       <c r="S72" s="5">
         <v>130.43937166150002</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>87.543848959849996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>39022</v>
       </c>
@@ -15086,8 +15302,11 @@
       <c r="S73" s="5">
         <v>138.25054432190001</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>89.985887478240002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>39052</v>
       </c>
@@ -15136,8 +15355,11 @@
       <c r="S74" s="6">
         <v>140.51008401659999</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>92.448637453610004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>39083</v>
       </c>
@@ -15186,8 +15408,11 @@
       <c r="S75" s="5">
         <v>148.3723145404</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>97.500794020089998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>39114</v>
       </c>
@@ -15236,8 +15461,11 @@
       <c r="S76" s="5">
         <v>155.90924800100001</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76">
+        <v>105.53657999821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>39142</v>
       </c>
@@ -15286,8 +15514,11 @@
       <c r="S77" s="5">
         <v>163.71843745860002</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77">
+        <v>111.5406702051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>39173</v>
       </c>
@@ -15336,8 +15567,11 @@
       <c r="S78" s="5">
         <v>168.71252543450001</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>113.57727912439999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>39203</v>
       </c>
@@ -15386,8 +15620,11 @@
       <c r="S79" s="5">
         <v>170.06011568529999</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>113.66767323585999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>39234</v>
       </c>
@@ -15436,8 +15673,11 @@
       <c r="S80" s="5">
         <v>176.02735888020001</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>117.13011007262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>39264</v>
       </c>
@@ -15486,8 +15726,11 @@
       <c r="S81" s="5">
         <v>177.45177475940002</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>115.38860016024999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>39295</v>
       </c>
@@ -15536,8 +15779,11 @@
       <c r="S82" s="5">
         <v>175.45047087600003</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <v>106.67185171164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>39326</v>
       </c>
@@ -15586,8 +15832,11 @@
       <c r="S83" s="5">
         <v>176.2977543646</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>101.67045923534999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>39356</v>
       </c>
@@ -15636,8 +15885,11 @@
       <c r="S84" s="5">
         <v>169.03848578399999</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84">
+        <v>87.372108955249999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>39387</v>
       </c>
@@ -15686,8 +15938,11 @@
       <c r="S85" s="5">
         <v>157.17000821250002</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85">
+        <v>82.744909359009995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>39417</v>
       </c>
@@ -15736,8 +15991,11 @@
       <c r="S86" s="6">
         <v>140.89150600360003</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <v>80.25359187363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>39448</v>
       </c>
@@ -15786,8 +16044,11 @@
       <c r="S87" s="5">
         <v>136.2373196124</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87">
+        <v>85.235838863989997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>39479</v>
       </c>
@@ -15836,8 +16097,11 @@
       <c r="S88" s="5">
         <v>145.24376501430001</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88">
+        <v>84.522176720830004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>39508</v>
       </c>
@@ -15886,8 +16150,11 @@
       <c r="S89" s="5">
         <v>141.51891537329999</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>83.722936312510001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>39539</v>
       </c>
@@ -15936,8 +16203,11 @@
       <c r="S90" s="5">
         <v>146.9730495721</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>86.56886278863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>39569</v>
       </c>
@@ -15986,8 +16256,11 @@
       <c r="S91" s="5">
         <v>154.30791745670001</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <v>91.539832059700004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>39600</v>
       </c>
@@ -16036,8 +16309,11 @@
       <c r="S92" s="5">
         <v>164.61903297120003</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92">
+        <v>91.480428175979995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>39630</v>
       </c>
@@ -16086,8 +16362,11 @@
       <c r="S93" s="5">
         <v>161.07531824669999</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>88.109199339819995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>39661</v>
       </c>
@@ -16136,8 +16415,11 @@
       <c r="S94" s="5">
         <v>156.73667324569999</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>91.276295491840003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>39692</v>
       </c>
@@ -16186,8 +16468,11 @@
       <c r="S95" s="5">
         <v>155.28800850760001</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>90.170898330309996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>39722</v>
       </c>
@@ -16236,8 +16521,11 @@
       <c r="S96" s="5">
         <v>156.82891620909999</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>91.805887456519997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>39753</v>
       </c>
@@ -16286,8 +16574,11 @@
       <c r="S97" s="5">
         <v>155.94755376839998</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>94.374429245119998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>39783</v>
       </c>
@@ -16336,8 +16627,11 @@
       <c r="S98" s="6">
         <v>157.62353002259999</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98">
+        <v>95.284812531810005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>39814</v>
       </c>
@@ -16386,8 +16680,11 @@
       <c r="S99" s="5">
         <v>159.90899335360001</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T99">
+        <v>96.23063108353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>39845</v>
       </c>
@@ -16436,8 +16733,11 @@
       <c r="S100" s="5">
         <v>158.67616929590002</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <v>93.721074175680002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>39873</v>
       </c>
@@ -16486,8 +16786,11 @@
       <c r="S101" s="5">
         <v>146.8416595118</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T101">
+        <v>92.122575916330007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>39904</v>
       </c>
@@ -16536,8 +16839,11 @@
       <c r="S102" s="5">
         <v>148.31610278700001</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102">
+        <v>93.390366877410003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>39934</v>
       </c>
@@ -16586,8 +16892,11 @@
       <c r="S103" s="5">
         <v>150.9044341197</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103">
+        <v>92.561353724940005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>39965</v>
       </c>
@@ -16636,8 +16945,11 @@
       <c r="S104" s="5">
         <v>153.9337487965</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>92.446419654470006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>39995</v>
       </c>
@@ -16686,8 +16998,11 @@
       <c r="S105" s="5">
         <v>154.86869390950002</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T105">
+        <v>95.728235259049995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>40026</v>
       </c>
@@ -16736,8 +17051,11 @@
       <c r="S106" s="5">
         <v>161.3879352436</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T106">
+        <v>99.793547338989995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>40057</v>
       </c>
@@ -16786,8 +17104,11 @@
       <c r="S107" s="5">
         <v>164.46167778450001</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <v>103.78765498987001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>40087</v>
       </c>
@@ -16836,8 +17157,11 @@
       <c r="S108" s="5">
         <v>169.78208212269999</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T108">
+        <v>108.71785181426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>40118</v>
       </c>
@@ -16886,8 +17210,11 @@
       <c r="S109" s="5">
         <v>173.44371526859999</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T109">
+        <v>113.03827310714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>40148</v>
       </c>
@@ -16936,8 +17263,11 @@
       <c r="S110" s="6">
         <v>177.14651306770003</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110">
+        <v>118.46201605834</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>40179</v>
       </c>
@@ -16986,8 +17316,11 @@
       <c r="S111" s="5">
         <v>184.1622778768</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111">
+        <v>123.84963513318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>40210</v>
       </c>
@@ -17036,8 +17369,11 @@
       <c r="S112" s="5">
         <v>190.2434047765</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T112">
+        <v>129.92235342007999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>40238</v>
       </c>
@@ -17086,8 +17422,11 @@
       <c r="S113" s="5">
         <v>192.73499054200002</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T113">
+        <v>125.90624642118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>40269</v>
       </c>
@@ -17136,8 +17475,11 @@
       <c r="S114" s="5">
         <v>194.84385348160001</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T114">
+        <v>127.45912565376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>40299</v>
       </c>
@@ -17186,8 +17528,11 @@
       <c r="S115" s="5">
         <v>198.48335758790003</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T115">
+        <v>123.86990652055999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>40330</v>
       </c>
@@ -17236,8 +17581,11 @@
       <c r="S116" s="5">
         <v>199.40871773700002</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T116">
+        <v>122.99524438445999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>40360</v>
       </c>
@@ -17286,8 +17634,11 @@
       <c r="S117" s="5">
         <v>195.02712381890001</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T117">
+        <v>122.65316515599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>40391</v>
       </c>
@@ -17336,8 +17687,11 @@
       <c r="S118" s="5">
         <v>196.27164228550001</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T118">
+        <v>123.43699591153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>40422</v>
       </c>
@@ -17386,8 +17740,11 @@
       <c r="S119" s="5">
         <v>195.57091334769999</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T119">
+        <v>121.37688972661</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>40452</v>
       </c>
@@ -17436,8 +17793,11 @@
       <c r="S120" s="5">
         <v>191.64350938300001</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T120">
+        <v>115.33858589323999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>40483</v>
       </c>
@@ -17486,8 +17846,11 @@
       <c r="S121" s="5">
         <v>187.31196764980001</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T121">
+        <v>112.01892230420999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>40513</v>
       </c>
@@ -17536,8 +17899,11 @@
       <c r="S122" s="6">
         <v>183.1936807635</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T122">
+        <v>109.42636540734</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>40544</v>
       </c>
@@ -17586,8 +17952,11 @@
       <c r="S123" s="5">
         <v>183.51354154019998</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T123">
+        <v>111.13379464113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>40575</v>
       </c>
@@ -17636,8 +18005,11 @@
       <c r="S124" s="5">
         <v>184.01497100359998</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T124">
+        <v>113.37141224164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>40603</v>
       </c>
@@ -17686,8 +18058,11 @@
       <c r="S125" s="5">
         <v>191.5633454956</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T125">
+        <v>114.54122475406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>40634</v>
       </c>
@@ -17736,8 +18111,11 @@
       <c r="S126" s="5">
         <v>194.38558852049999</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T126">
+        <v>114.74633476679</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>40664</v>
       </c>
@@ -17786,8 +18164,11 @@
       <c r="S127" s="5">
         <v>205.42999606010002</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T127">
+        <v>112.89827279593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>40695</v>
       </c>
@@ -17836,8 +18217,11 @@
       <c r="S128" s="5">
         <v>205.83051621090002</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T128">
+        <v>110.52970733034</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>40725</v>
       </c>
@@ -17886,8 +18270,11 @@
       <c r="S129" s="5">
         <v>210.02931455999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T129">
+        <v>118.44123836934</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>40756</v>
       </c>
@@ -17936,8 +18323,11 @@
       <c r="S130" s="5">
         <v>218.0839889353</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T130">
+        <v>118.07146278186001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>40787</v>
       </c>
@@ -17986,8 +18376,11 @@
       <c r="S131" s="5">
         <v>223.6663873661</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T131">
+        <v>118.11334896133999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>40817</v>
       </c>
@@ -18036,8 +18429,11 @@
       <c r="S132" s="5">
         <v>219.28854489829999</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T132">
+        <v>114.93855717519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>40848</v>
       </c>
@@ -18086,8 +18482,11 @@
       <c r="S133" s="5">
         <v>220.70869332540002</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T133">
+        <v>112.55700428566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>40878</v>
       </c>
@@ -18136,8 +18535,11 @@
       <c r="S134" s="6">
         <v>219.56599512439999</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T134">
+        <v>112.12887227688</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>40909</v>
       </c>
@@ -18186,8 +18588,11 @@
       <c r="S135" s="5">
         <v>222.61516874580002</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T135">
+        <v>111.18953242347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>40940</v>
       </c>
@@ -18236,8 +18641,11 @@
       <c r="S136" s="5">
         <v>215.50448442379999</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T136">
+        <v>110.0206435172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>40969</v>
       </c>
@@ -18286,8 +18694,11 @@
       <c r="S137" s="5">
         <v>210.5282167087</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T137">
+        <v>109.00656499714</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>41000</v>
       </c>
@@ -18336,8 +18747,11 @@
       <c r="S138" s="5">
         <v>206.20829181680003</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T138">
+        <v>106.73608678761001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>41030</v>
       </c>
@@ -18386,8 +18800,11 @@
       <c r="S139" s="5">
         <v>204.99431284490001</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T139">
+        <v>107.08222497419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>41061</v>
       </c>
@@ -18436,8 +18853,11 @@
       <c r="S140" s="5">
         <v>208.5407821343</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T140">
+        <v>107.0975710638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>41091</v>
       </c>
@@ -18486,8 +18906,11 @@
       <c r="S141" s="5">
         <v>214.48946742900003</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T141">
+        <v>104.71117216287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>41122</v>
       </c>
@@ -18536,8 +18959,11 @@
       <c r="S142" s="5">
         <v>204.99027494410001</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T142">
+        <v>102.60877276309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>41153</v>
       </c>
@@ -18586,8 +19012,11 @@
       <c r="S143" s="5">
         <v>203.28998520460001</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T143">
+        <v>102.60389912364001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>41183</v>
       </c>
@@ -18636,8 +19065,11 @@
       <c r="S144" s="5">
         <v>206.8886729006</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T144">
+        <v>102.86179242466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>41214</v>
       </c>
@@ -18686,8 +19118,11 @@
       <c r="S145" s="5">
         <v>206.996515375</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T145">
+        <v>102.05749911965999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>41244</v>
       </c>
@@ -18736,8 +19171,11 @@
       <c r="S146" s="6">
         <v>212.96670111220001</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T146">
+        <v>102.20049872747001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>41275</v>
       </c>
@@ -18786,8 +19224,11 @@
       <c r="S147" s="5">
         <v>215.53118415079999</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T147">
+        <v>100.96463995883001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>41306</v>
       </c>
@@ -18836,8 +19277,11 @@
       <c r="S148" s="5">
         <v>214.9137425532</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T148">
+        <v>103.20643888849</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>41334</v>
       </c>
@@ -18886,8 +19330,11 @@
       <c r="S149" s="5">
         <v>212.0823477486</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T149">
+        <v>108.07157442906001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>41365</v>
       </c>
@@ -18936,8 +19383,11 @@
       <c r="S150" s="5">
         <v>218.13788684579998</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T150">
+        <v>107.31213221802</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>41395</v>
       </c>
@@ -18986,8 +19436,11 @@
       <c r="S151" s="5">
         <v>218.23372969550002</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T151">
+        <v>106.87794829761999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>41426</v>
       </c>
@@ -19036,8 +19489,11 @@
       <c r="S152" s="5">
         <v>219.48515888750001</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T152">
+        <v>104.6555555825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>41456</v>
       </c>
@@ -19086,8 +19542,11 @@
       <c r="S153" s="5">
         <v>207.28467942579999</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T153">
+        <v>102.60829790733</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>41487</v>
       </c>
@@ -19136,8 +19595,11 @@
       <c r="S154" s="5">
         <v>203.58217233600001</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T154">
+        <v>100.94031437807</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>41518</v>
       </c>
@@ -19186,8 +19648,11 @@
       <c r="S155" s="5">
         <v>202.03963542720001</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T155">
+        <v>97.809415370509996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>41548</v>
       </c>
@@ -19236,8 +19701,11 @@
       <c r="S156" s="5">
         <v>191.23977835060001</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T156">
+        <v>97.306317896110002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>41579</v>
       </c>
@@ -19286,8 +19754,11 @@
       <c r="S157" s="5">
         <v>192.02287576010002</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T157">
+        <v>97.150303669150006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>41609</v>
       </c>
@@ -19336,8 +19807,11 @@
       <c r="S158" s="6">
         <v>191.0719582815</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T158">
+        <v>95.712040230309995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>41640</v>
       </c>
@@ -19386,8 +19860,11 @@
       <c r="S159" s="5">
         <v>189.95575527940002</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T159">
+        <v>93.670503181650005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>41671</v>
       </c>
@@ -19436,8 +19913,11 @@
       <c r="S160" s="5">
         <v>183.5737898154</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T160">
+        <v>91.989473564199997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>41699</v>
       </c>
@@ -19486,8 +19966,11 @@
       <c r="S161" s="5">
         <v>174.71449453650001</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T161">
+        <v>89.801295695410005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>41730</v>
       </c>
@@ -19536,8 +20019,11 @@
       <c r="S162" s="5">
         <v>165.92192499380002</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T162">
+        <v>89.454329070699998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>41760</v>
       </c>
@@ -19586,8 +20072,11 @@
       <c r="S163" s="5">
         <v>166.48742522149999</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T163">
+        <v>89.278277672830001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>41791</v>
       </c>
@@ -19636,8 +20125,11 @@
       <c r="S164" s="5">
         <v>166.0289250797</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T164">
+        <v>89.084210702440004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>41821</v>
       </c>
@@ -19686,8 +20178,11 @@
       <c r="S165" s="5">
         <v>162.9472347304</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T165">
+        <v>89.422463423159996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>41852</v>
       </c>
@@ -19736,8 +20231,11 @@
       <c r="S166" s="5">
         <v>166.2498191681</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T166">
+        <v>85.607706076249997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>41883</v>
       </c>
@@ -19786,8 +20284,11 @@
       <c r="S167" s="5">
         <v>160.50374166169999</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T167">
+        <v>83.856331355489999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>41913</v>
       </c>
@@ -19836,8 +20337,11 @@
       <c r="S168" s="5">
         <v>158.90873439310002</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T168">
+        <v>84.763877848950003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>41944</v>
       </c>
@@ -19886,8 +20390,11 @@
       <c r="S169" s="5">
         <v>154.54138281829998</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T169">
+        <v>83.703312126919997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>41974</v>
       </c>
@@ -19936,8 +20443,11 @@
       <c r="S170" s="6">
         <v>156.06885346269999</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T170">
+        <v>83.657970741409997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42005</v>
       </c>
@@ -19986,8 +20496,11 @@
       <c r="S171" s="5">
         <v>148.32341052229998</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T171">
+        <v>82.300864537059994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42036</v>
       </c>
@@ -20036,8 +20549,11 @@
       <c r="S172" s="5">
         <v>147.08616680990002</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T172">
+        <v>82.533677168850005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42064</v>
       </c>
@@ -20086,8 +20602,11 @@
       <c r="S173" s="5">
         <v>147.34980610830002</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T173">
+        <v>84.413050840379995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42095</v>
       </c>
@@ -20136,8 +20655,11 @@
       <c r="S174" s="5">
         <v>148.03482266029999</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T174">
+        <v>86.894977986499995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42125</v>
       </c>
@@ -20186,8 +20708,11 @@
       <c r="S175" s="5">
         <v>155.14551559080002</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T175">
+        <v>89.622824680350007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42156</v>
       </c>
@@ -20236,8 +20761,11 @@
       <c r="S176" s="5">
         <v>165.99845874660002</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T176">
+        <v>92.571306633820001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42186</v>
       </c>
@@ -20286,8 +20814,11 @@
       <c r="S177" s="5">
         <v>166.74003842230002</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T177">
+        <v>90.347243776019994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42217</v>
       </c>
@@ -20336,8 +20867,11 @@
       <c r="S178" s="5">
         <v>168.73920396599999</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T178">
+        <v>89.145314744230006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>42248</v>
       </c>
@@ -20386,8 +20920,11 @@
       <c r="S179" s="5">
         <v>171.26013882979998</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T179">
+        <v>88.610207440620002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>42278</v>
       </c>
@@ -20436,8 +20973,11 @@
       <c r="S180" s="5">
         <v>164.64249366380002</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T180">
+        <v>87.392945173089998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>42309</v>
       </c>
@@ -20486,8 +21026,11 @@
       <c r="S181" s="5">
         <v>165.34383190770001</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T181">
+        <v>87.875215891490001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42339</v>
       </c>
@@ -20536,8 +21079,11 @@
       <c r="S182" s="6">
         <v>164.2170155606</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T182">
+        <v>87.655616338439998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42370</v>
       </c>
@@ -20586,8 +21132,11 @@
       <c r="S183" s="5">
         <v>162.89306208830001</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T183">
+        <v>89.466584958240006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42401</v>
       </c>
@@ -20636,8 +21185,11 @@
       <c r="S184" s="5">
         <v>165.2624429807</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T184">
+        <v>89.275503761389999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42430</v>
       </c>
@@ -20686,8 +21238,11 @@
       <c r="S185" s="5">
         <v>161.4055941853</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T185">
+        <v>87.678736534500004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42461</v>
       </c>
@@ -20736,8 +21291,11 @@
       <c r="S186" s="5">
         <v>155.1958814747</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T186">
+        <v>86.810220244969997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42491</v>
       </c>
@@ -20786,8 +21344,11 @@
       <c r="S187" s="5">
         <v>156.0452342216</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T187">
+        <v>88.149987168319996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42522</v>
       </c>
@@ -20836,8 +21397,11 @@
       <c r="S188" s="5">
         <v>157.56047033729999</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T188">
+        <v>87.114939047299998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42552</v>
       </c>
@@ -20886,8 +21450,11 @@
       <c r="S189" s="5">
         <v>154.7279522215</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T189">
+        <v>87.499528167349993</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42583</v>
       </c>
@@ -20936,8 +21503,11 @@
       <c r="S190" s="5">
         <v>157.276275943</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T190">
+        <v>85.552574759839999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42614</v>
       </c>
@@ -20986,8 +21556,11 @@
       <c r="S191" s="5">
         <v>157.51500000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T191">
+        <v>86.101245963330001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42644</v>
       </c>
@@ -21036,8 +21609,11 @@
       <c r="S192" s="5">
         <v>158.72768794999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T192">
+        <v>85.301085280359999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42675</v>
       </c>
@@ -21086,8 +21662,11 @@
       <c r="S193" s="5">
         <v>162.3183120832</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T193">
+        <v>85.581662287209994</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42705</v>
       </c>
@@ -21136,8 +21715,11 @@
       <c r="S194" s="6">
         <v>164.94805343159999</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T194">
+        <v>84.849463348789996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42736</v>
       </c>
@@ -21186,8 +21768,11 @@
       <c r="S195" s="5">
         <v>168.13021620859999</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T195">
+        <v>87.030097859850002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42767</v>
       </c>
@@ -21236,8 +21821,11 @@
       <c r="S196" s="5">
         <v>173.15529978040001</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T196">
+        <v>88.669394827359994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42795</v>
       </c>
@@ -21286,8 +21874,11 @@
       <c r="S197" s="5">
         <v>178.3545919499</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T197">
+        <v>90.04237511158</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42826</v>
       </c>
@@ -21336,8 +21927,11 @@
       <c r="S198" s="5">
         <v>177.2728532118</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T198">
+        <v>91.66347103551</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42856</v>
       </c>
@@ -21386,8 +21980,11 @@
       <c r="S199" s="5">
         <v>185.3179602141</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T199">
+        <v>91.846808784659999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42887</v>
       </c>
@@ -21436,8 +22033,11 @@
       <c r="S200" s="5">
         <v>180.96238415650001</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T200">
+        <v>88.936058891900004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42917</v>
       </c>
@@ -21486,8 +22086,11 @@
       <c r="S201" s="5">
         <v>171.36090992430002</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T201">
+        <v>86.350949361900007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42948</v>
       </c>
@@ -21536,8 +22139,11 @@
       <c r="S202" s="5">
         <v>163.58568150270003</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T202">
+        <v>84.838934939840001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42979</v>
       </c>
@@ -21586,8 +22192,11 @@
       <c r="S203" s="5">
         <v>162.5901668393</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T203">
+        <v>82.647513021799995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43009</v>
       </c>
@@ -21636,8 +22245,11 @@
       <c r="S204" s="5">
         <v>160.5760760686</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T204">
+        <v>83.38316256025</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43040</v>
       </c>
@@ -21686,8 +22298,11 @@
       <c r="S205" s="5">
         <v>165.98127614379999</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T205">
+        <v>82.205431194360003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43070</v>
       </c>
@@ -21736,8 +22351,11 @@
       <c r="S206" s="6">
         <v>160.93214889559999</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T206">
+        <v>82.521122397659994</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43101</v>
       </c>
@@ -21786,8 +22404,11 @@
       <c r="S207" s="5">
         <v>154.8494572747</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T207">
+        <v>83.306130223289998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43132</v>
       </c>
@@ -21836,8 +22457,11 @@
       <c r="S208" s="5">
         <v>153.95358375260003</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T208">
+        <v>83.53863994001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43160</v>
       </c>
@@ -21886,8 +22510,11 @@
       <c r="S209" s="5">
         <v>156.7741788532</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T209">
+        <v>82.797756340340001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43191</v>
       </c>
@@ -21936,8 +22563,11 @@
       <c r="S210" s="5">
         <v>154.94125681220001</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T210">
+        <v>82.941894697059993</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43221</v>
       </c>
@@ -21986,8 +22616,11 @@
       <c r="S211" s="5">
         <v>152.00261158090001</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T211">
+        <v>82.008355639360005</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43252</v>
       </c>
@@ -22036,8 +22669,11 @@
       <c r="S212" s="5">
         <v>152.58811839150002</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T212">
+        <v>84.018041985449997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43282</v>
       </c>
@@ -22086,8 +22722,11 @@
       <c r="S213" s="5">
         <v>153.76652932899998</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T213">
+        <v>83.034416748620004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43313</v>
       </c>
@@ -22136,8 +22775,11 @@
       <c r="S214" s="5">
         <v>154.74754467850002</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T214">
+        <v>80.640177038770005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43344</v>
       </c>
@@ -22186,8 +22828,11 @@
       <c r="S215" s="5">
         <v>155.31859565830001</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T215">
+        <v>80.682522430630002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43374</v>
       </c>
@@ -22236,8 +22881,11 @@
       <c r="S216" s="5">
         <v>157.9434400024</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T216">
+        <v>82.229255143139994</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43405</v>
       </c>
@@ -22286,8 +22934,11 @@
       <c r="S217" s="5">
         <v>161.86219245710001</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T217">
+        <v>85.235239622400002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43435</v>
       </c>
@@ -22336,8 +22987,11 @@
       <c r="S218" s="6">
         <v>163.01813469689998</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T218">
+        <v>87.139800181110004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43466</v>
       </c>
@@ -22386,8 +23040,11 @@
       <c r="S219" s="5">
         <v>158.0499273806</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T219">
+        <v>88.161382319439994</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43497</v>
       </c>
@@ -22436,8 +23093,11 @@
       <c r="S220" s="5">
         <v>155.92875798680001</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T220">
+        <v>85.587682741959995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43525</v>
       </c>
@@ -22486,8 +23146,11 @@
       <c r="S221" s="5">
         <v>159.01911821019999</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T221">
+        <v>82.777131285950006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43556</v>
       </c>
@@ -22536,8 +23199,11 @@
       <c r="S222" s="5">
         <v>154.3576444169</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T222">
+        <v>81.123862499880005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43586</v>
       </c>
@@ -22586,8 +23252,11 @@
       <c r="S223" s="5">
         <v>151.08232769430001</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T223">
+        <v>81.149351845680002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43617</v>
       </c>
@@ -22636,8 +23305,11 @@
       <c r="S224" s="5">
         <v>149.97121206200001</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T224">
+        <v>83.15311065121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43647</v>
       </c>
@@ -22686,8 +23358,11 @@
       <c r="S225" s="5">
         <v>148.6591677525</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T225">
+        <v>84.009253526750001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43678</v>
       </c>
@@ -22736,8 +23411,11 @@
       <c r="S226" s="5">
         <v>153.43097331600001</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T226">
+        <v>86.699995727070004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43709</v>
       </c>
@@ -22786,8 +23464,11 @@
       <c r="S227" s="7">
         <v>156.87475950250001</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T227">
+        <v>89.267074965199996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43739</v>
       </c>
@@ -22836,8 +23517,11 @@
       <c r="S228" s="7">
         <v>166.2942121156</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T228">
+        <v>91.194369878429995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43770</v>
       </c>
@@ -22886,8 +23570,11 @@
       <c r="S229" s="7">
         <v>169.7537670566</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T229">
+        <v>94.660591714359995</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43800</v>
       </c>
@@ -22936,8 +23623,11 @@
       <c r="S230" s="7">
         <v>172.91577028059999</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T230">
+        <v>97.124952596270006</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43831</v>
       </c>
@@ -22986,8 +23676,11 @@
       <c r="S231" s="7">
         <v>186.33138636540002</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T231">
+        <v>102.2317064914</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43862</v>
       </c>
@@ -23036,8 +23729,11 @@
       <c r="S232" s="7">
         <v>197.93937552200001</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T232">
+        <v>103.75044900146</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43891</v>
       </c>
@@ -23086,8 +23782,11 @@
       <c r="S233" s="7">
         <v>198.0479193932</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T233">
+        <v>102.93625882051001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43922</v>
       </c>
@@ -23136,8 +23835,11 @@
       <c r="S234" s="7">
         <v>199.46163709700002</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T234">
+        <v>105.62110032795</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43952</v>
       </c>
@@ -23186,8 +23888,11 @@
       <c r="S235" s="7">
         <v>201.4340863761</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T235">
+        <v>111.24491793638001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43983</v>
       </c>
@@ -23236,8 +23941,11 @@
       <c r="S236" s="7">
         <v>204.7564047953</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T236">
+        <v>108.69329434626999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44013</v>
       </c>
@@ -23286,8 +23994,11 @@
       <c r="S237" s="7">
         <v>200.42072315930002</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T237">
+        <v>108.22943233561</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44044</v>
       </c>
@@ -23336,8 +24047,11 @@
       <c r="S238" s="7">
         <v>199.82062917279998</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T238">
+        <v>109.3598234687</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44075</v>
       </c>
@@ -23386,8 +24100,11 @@
       <c r="S239" s="7">
         <v>203.18102063130002</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T239">
+        <v>108.22402833478</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44105</v>
       </c>
@@ -23436,8 +24153,11 @@
       <c r="S240" s="7">
         <v>201.2102112675</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T240">
+        <v>110.24899973789</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44136</v>
       </c>
@@ -23486,8 +24206,11 @@
       <c r="S241" s="7">
         <v>204.59195283450001</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T241">
+        <v>111.23203934682</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44166</v>
       </c>
@@ -23536,8 +24259,11 @@
       <c r="S242" s="7">
         <v>205.91941791950001</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T242">
+        <v>111.09122709343001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44197</v>
       </c>
@@ -23586,8 +24312,11 @@
       <c r="S243" s="7">
         <v>212.63810300599999</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T243">
+        <v>115.44239318538</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44228</v>
       </c>
@@ -23636,8 +24365,11 @@
       <c r="S244" s="7">
         <v>220.77910303410002</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T244">
+        <v>120.78007910463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44256</v>
       </c>
@@ -23686,8 +24418,11 @@
       <c r="S245" s="7">
         <v>233.85458757499998</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T245">
+        <v>129.14087383495999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44287</v>
       </c>
@@ -23736,8 +24471,11 @@
       <c r="S246" s="7">
         <v>247.75321689040001</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T246">
+        <v>130.36902375163999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44317</v>
       </c>
@@ -23786,8 +24524,11 @@
       <c r="S247" s="7">
         <v>252.65924332340001</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T247">
+        <v>129.75128731653999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44348</v>
       </c>
@@ -23836,8 +24577,11 @@
       <c r="S248" s="7">
         <v>248.2536866566</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T248">
+        <v>124.79336034428</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44378</v>
       </c>
@@ -23886,8 +24630,11 @@
       <c r="S249" s="7">
         <v>239.97119849890001</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T249">
+        <v>115.57956314291999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44409</v>
       </c>
@@ -23936,8 +24683,11 @@
       <c r="S250" s="7">
         <v>238.46913548969999</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T250">
+        <v>115.19872886768</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44440</v>
       </c>
@@ -23986,8 +24736,11 @@
       <c r="S251" s="7">
         <v>233.54624440009999</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T251">
+        <v>113.84211317254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44470</v>
       </c>
@@ -24036,8 +24789,11 @@
       <c r="S252" s="7">
         <v>222.4598390264</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T252">
+        <v>112.95993340302</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44501</v>
       </c>
@@ -24086,8 +24842,11 @@
       <c r="S253" s="7">
         <v>224.39475952040002</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T253">
+        <v>112.35192023675</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44531</v>
       </c>
@@ -24136,8 +24895,11 @@
       <c r="S254" s="7">
         <v>219.1648356387</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T254">
+        <v>111.60202551557001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44562</v>
       </c>
@@ -24186,8 +24948,11 @@
       <c r="S255" s="7">
         <v>214.69194143229998</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T255">
+        <v>112.17165291172</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44593</v>
       </c>
@@ -24236,8 +25001,11 @@
       <c r="S256" s="7">
         <v>217.48275111140001</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T256">
+        <v>113.28737417004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44621</v>
       </c>
@@ -24286,8 +25054,11 @@
       <c r="S257" s="7">
         <v>219.03434524529999</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T257">
+        <v>111.01169396602</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44652</v>
       </c>
@@ -24336,8 +25107,11 @@
       <c r="S258" s="7">
         <v>220.32555376709999</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T258">
+        <v>114.08735652326</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44682</v>
       </c>
@@ -24386,8 +25160,11 @@
       <c r="S259" s="7">
         <v>211.6883040658</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T259">
+        <v>111.48213750117</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44713</v>
       </c>
@@ -24436,8 +25213,11 @@
       <c r="S260" s="7">
         <v>204.23594664320001</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T260">
+        <v>109.11624644546001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44743</v>
       </c>
@@ -24486,8 +25266,11 @@
       <c r="S261" s="7">
         <v>202.66260342479998</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T261">
+        <v>109.90065621426</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44774</v>
       </c>
@@ -24536,8 +25319,11 @@
       <c r="S262" s="7">
         <v>197.13507049059999</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T262">
+        <v>108.74117645779</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44805</v>
       </c>
@@ -24586,8 +25372,11 @@
       <c r="S263" s="7">
         <v>198.08185096460002</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T263">
+        <v>110.75149346396999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44835</v>
       </c>
@@ -24636,8 +25425,11 @@
       <c r="S264" s="7">
         <v>194.03383039240001</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T264">
+        <v>109.30173008286999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44866</v>
       </c>
@@ -24686,8 +25478,11 @@
       <c r="S265" s="7">
         <v>194.16746098760001</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T265">
+        <v>111.01830729723</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44896</v>
       </c>
@@ -24736,8 +25531,11 @@
       <c r="S266" s="7">
         <v>195.24772554180001</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T266">
+        <v>109.73748975533999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44927</v>
       </c>
@@ -24786,8 +25584,11 @@
       <c r="S267" s="7">
         <v>189.874103174</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T267">
+        <v>109.21553149342</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44958</v>
       </c>
@@ -24836,8 +25637,11 @@
       <c r="S268" s="7">
         <v>183.43478067890001</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T268">
+        <v>110.50798006105001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44986</v>
       </c>
@@ -24886,8 +25690,11 @@
       <c r="S269" s="7">
         <v>181.2927197002</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T269">
+        <v>113.72701182071999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45017</v>
       </c>
@@ -24936,8 +25743,11 @@
       <c r="S270" s="7">
         <v>183.8654933162</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T270">
+        <v>118.13411063877</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45047</v>
       </c>
@@ -24986,8 +25796,11 @@
       <c r="S271" s="7">
         <v>180.95405113710001</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T271">
+        <v>115.47254588363</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45078</v>
       </c>
@@ -25036,8 +25849,11 @@
       <c r="S272" s="7">
         <v>186.57492309559998</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T272">
+        <v>115.65836107651</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45108</v>
       </c>
@@ -25086,8 +25902,11 @@
       <c r="S273" s="7">
         <v>184.39698708350002</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T273">
+        <v>113.60634429308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45139</v>
       </c>
@@ -25136,8 +25955,11 @@
       <c r="S274" s="7">
         <v>180.2363265816</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T274">
+        <v>112.00926821762999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45170</v>
       </c>
@@ -25186,8 +26008,11 @@
       <c r="S275" s="7">
         <v>182.79522150119999</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T275">
+        <v>115.13995046385</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45200</v>
       </c>
@@ -25236,8 +26061,11 @@
       <c r="S276" s="7">
         <v>185.79288412529999</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T276">
+        <v>115.96617266542</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45231</v>
       </c>
@@ -25286,8 +26114,11 @@
       <c r="S277" s="7">
         <v>184.33258993090001</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T277">
+        <v>118.11282705903</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45261</v>
       </c>
@@ -25336,8 +26167,11 @@
       <c r="S278" s="7">
         <v>182.2867095176</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T278">
+        <v>122.17159701609</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45292</v>
       </c>
@@ -25365,8 +26199,11 @@
       <c r="Q279">
         <v>482.60193165156431</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T279">
+        <v>122.34581031339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45323</v>
       </c>
@@ -25394,8 +26231,11 @@
       <c r="Q280">
         <v>549.54271582759259</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T280">
+        <v>122.65948650529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45352</v>
       </c>
@@ -25423,8 +26263,11 @@
       <c r="Q281">
         <v>497.20884966261184</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T281">
+        <v>118.20895720514</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45383</v>
       </c>
@@ -25452,8 +26295,11 @@
       <c r="Q282">
         <v>508.23226070339535</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T282">
+        <v>117.49358988725</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45413</v>
       </c>
@@ -25481,8 +26327,11 @@
       <c r="Q283">
         <v>518.43468124909043</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T283">
+        <v>117.77403298279</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45444</v>
       </c>
@@ -25510,8 +26359,11 @@
       <c r="Q284">
         <v>492.19881379402938</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T284">
+        <v>113.39591512301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45474</v>
       </c>
@@ -25539,8 +26391,11 @@
       <c r="Q285">
         <v>524.15521632509069</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T285">
+        <v>111.19867212903</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45505</v>
       </c>
@@ -25569,7 +26424,7 @@
         <v>524.31529296418989</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45536</v>
       </c>
@@ -25595,7 +26450,7 @@
         <v>190.49434983614705</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45566</v>
       </c>
@@ -25621,7 +26476,7 @@
         <v>187.62311955295971</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45597</v>
       </c>
@@ -25647,7 +26502,7 @@
         <v>182.28044435756038</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45627</v>
       </c>
@@ -25673,7 +26528,7 @@
         <v>174.74789557736887</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45658</v>
       </c>
@@ -25696,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45689</v>
       </c>
@@ -25719,7 +26574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45717</v>
       </c>
@@ -25742,7 +26597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45748</v>
       </c>
@@ -25765,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45778</v>
       </c>
@@ -25788,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45809</v>
       </c>
@@ -25811,7 +26666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45839</v>
       </c>
@@ -25834,7 +26689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45870</v>
       </c>
@@ -25857,7 +26712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45901</v>
       </c>
@@ -25880,7 +26735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45931</v>
       </c>
@@ -25903,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45962</v>
       </c>
@@ -25923,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45992</v>
       </c>
